--- a/methods/230703-Catchment Information Data Sheet.xlsx
+++ b/methods/230703-Catchment Information Data Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rynar\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\OneDrive\Documents\VSCode\MEng\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333F94CD-B484-432C-8D7A-18BF5D81E9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5EED52-196F-42E6-91AD-29A0E553B7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{537A5211-58EB-41E7-B8F9-2F20278398F1}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14595" windowHeight="15585" xr2:uid="{537A5211-58EB-41E7-B8F9-2F20278398F1}"/>
   </bookViews>
   <sheets>
     <sheet name="GENERAL CATCHMENT INFORMATION" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6233" uniqueCount="4771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6236" uniqueCount="4774">
   <si>
     <t>From Deprtment Water Affairs (DWS)</t>
   </si>
@@ -14386,6 +14386,15 @@
   </si>
   <si>
     <t>GENERAL CATCHMENT INFORMATION</t>
+  </si>
+  <si>
+    <t>Single Rainfall Station</t>
+  </si>
+  <si>
+    <t>Multiple Rainfall Station</t>
+  </si>
+  <si>
+    <t>MAP</t>
   </si>
 </sst>
 </file>
@@ -14487,7 +14496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -14556,11 +14565,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -14631,11 +14666,113 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="55">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -15990,8 +16127,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{A962A339-9CFE-4AEF-8A13-317284C59726}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="857" unboundColumnsLeft="8" unboundColumnsRight="36">
-    <queryTableFields count="50">
+  <queryTableRefresh nextId="860" unboundColumnsLeft="8" unboundColumnsRight="39">
+    <queryTableFields count="53">
       <queryTableField id="605" dataBound="0" tableColumnId="605"/>
       <queryTableField id="606" dataBound="0" tableColumnId="606"/>
       <queryTableField id="607" dataBound="0" tableColumnId="607"/>
@@ -16042,6 +16179,9 @@
       <queryTableField id="844" dataBound="0" tableColumnId="739"/>
       <queryTableField id="843" dataBound="0" tableColumnId="738"/>
       <queryTableField id="855" dataBound="0" tableColumnId="750"/>
+      <queryTableField id="857" dataBound="0" tableColumnId="4"/>
+      <queryTableField id="858" dataBound="0" tableColumnId="5"/>
+      <queryTableField id="859" dataBound="0" tableColumnId="6"/>
     </queryTableFields>
     <queryTableDeletedFields count="596">
       <deletedField name="Lat"/>
@@ -16646,61 +16786,64 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04D32924-62EF-4831-ABE1-DC7E949D7E37}" name="Table_Params_withFFA_20230511" displayName="Table_Params_withFFA_20230511" ref="F3:BC414" tableType="queryTable" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
-  <autoFilter ref="F3:BC414" xr:uid="{04D32924-62EF-4831-ABE1-DC7E949D7E37}"/>
-  <tableColumns count="50">
-    <tableColumn id="605" xr3:uid="{7B018676-E720-4844-9E3F-29631CB59E09}" uniqueName="605" name="Lat" queryTableFieldId="605" dataDxfId="49"/>
-    <tableColumn id="606" xr3:uid="{3555A8EF-47F4-4F22-8941-D4DB6D1EC838}" uniqueName="606" name="Lon" queryTableFieldId="606" dataDxfId="48"/>
-    <tableColumn id="607" xr3:uid="{9CF43959-8724-4DB1-8108-05FA330ACA47}" uniqueName="607" name="Start date" queryTableFieldId="607" dataDxfId="47"/>
-    <tableColumn id="608" xr3:uid="{8113BF38-87F2-4FCB-8E7E-CA23057DB887}" uniqueName="608" name="End date" queryTableFieldId="608" dataDxfId="46"/>
-    <tableColumn id="613" xr3:uid="{C839B4F2-614C-4A7F-8C60-A43AF100FE27}" uniqueName="613" name="Catchment Area" queryTableFieldId="613" dataDxfId="45"/>
-    <tableColumn id="609" xr3:uid="{87E7FA18-5CBD-408F-8D05-590181BFBBA8}" uniqueName="609" name="Historical Start" queryTableFieldId="609" dataDxfId="44"/>
-    <tableColumn id="602" xr3:uid="{FFE625A4-6897-4C30-BCBD-0EB4B7FD917F}" uniqueName="602" name="Catchment Description" queryTableFieldId="602" dataDxfId="43"/>
-    <tableColumn id="611" xr3:uid="{EA94B4C6-CBAF-4768-89DA-710F38E442E6}" uniqueName="611" name="Area" queryTableFieldId="611" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{C87FC70B-6DC9-4029-A380-32700A9D445C}" uniqueName="2" name="Shape_Leng" queryTableFieldId="2" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{06962964-ADBA-4489-B6CB-5F71F6908A05}" uniqueName="3" name="Shape_Area" queryTableFieldId="3" dataDxfId="40"/>
-    <tableColumn id="11" xr3:uid="{08C5AFA0-7817-441F-AE1A-C657E4E271B0}" uniqueName="11" name="Perim" queryTableFieldId="11" dataDxfId="39"/>
-    <tableColumn id="12" xr3:uid="{3906B8A7-0553-4877-AFC5-C058829394FD}" uniqueName="12" name="Lc " queryTableFieldId="12" dataDxfId="38"/>
-    <tableColumn id="1" xr3:uid="{F7403F73-6E92-4975-BD50-8FE6D131EE5D}" uniqueName="1" name="Lc (km)" queryTableFieldId="856" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04D32924-62EF-4831-ABE1-DC7E949D7E37}" name="Table_Params_withFFA_20230511" displayName="Table_Params_withFFA_20230511" ref="F3:BF414" tableType="queryTable" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+  <autoFilter ref="F3:BF414" xr:uid="{04D32924-62EF-4831-ABE1-DC7E949D7E37}"/>
+  <tableColumns count="53">
+    <tableColumn id="605" xr3:uid="{7B018676-E720-4844-9E3F-29631CB59E09}" uniqueName="605" name="Lat" queryTableFieldId="605" dataDxfId="52"/>
+    <tableColumn id="606" xr3:uid="{3555A8EF-47F4-4F22-8941-D4DB6D1EC838}" uniqueName="606" name="Lon" queryTableFieldId="606" dataDxfId="51"/>
+    <tableColumn id="607" xr3:uid="{9CF43959-8724-4DB1-8108-05FA330ACA47}" uniqueName="607" name="Start date" queryTableFieldId="607" dataDxfId="50"/>
+    <tableColumn id="608" xr3:uid="{8113BF38-87F2-4FCB-8E7E-CA23057DB887}" uniqueName="608" name="End date" queryTableFieldId="608" dataDxfId="49"/>
+    <tableColumn id="613" xr3:uid="{C839B4F2-614C-4A7F-8C60-A43AF100FE27}" uniqueName="613" name="Catchment Area" queryTableFieldId="613" dataDxfId="48"/>
+    <tableColumn id="609" xr3:uid="{87E7FA18-5CBD-408F-8D05-590181BFBBA8}" uniqueName="609" name="Historical Start" queryTableFieldId="609" dataDxfId="47"/>
+    <tableColumn id="602" xr3:uid="{FFE625A4-6897-4C30-BCBD-0EB4B7FD917F}" uniqueName="602" name="Catchment Description" queryTableFieldId="602" dataDxfId="46"/>
+    <tableColumn id="611" xr3:uid="{EA94B4C6-CBAF-4768-89DA-710F38E442E6}" uniqueName="611" name="Area" queryTableFieldId="611" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{C87FC70B-6DC9-4029-A380-32700A9D445C}" uniqueName="2" name="Shape_Leng" queryTableFieldId="2" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{06962964-ADBA-4489-B6CB-5F71F6908A05}" uniqueName="3" name="Shape_Area" queryTableFieldId="3" dataDxfId="43"/>
+    <tableColumn id="11" xr3:uid="{08C5AFA0-7817-441F-AE1A-C657E4E271B0}" uniqueName="11" name="Perim" queryTableFieldId="11" dataDxfId="42"/>
+    <tableColumn id="12" xr3:uid="{3906B8A7-0553-4877-AFC5-C058829394FD}" uniqueName="12" name="Lc " queryTableFieldId="12" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{F7403F73-6E92-4975-BD50-8FE6D131EE5D}" uniqueName="1" name="Lc (km)" queryTableFieldId="856" dataDxfId="40">
       <calculatedColumnFormula>+Q4*0.001</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{FC6C8776-AD68-41A1-8A49-71D9C6F74C6E}" uniqueName="13" name="Length" queryTableFieldId="13" dataDxfId="36"/>
-    <tableColumn id="44" xr3:uid="{FD77AD37-D455-471A-ACF3-8FA3F16710DE}" uniqueName="44" name="Inland/summer rainfall" queryTableFieldId="787" dataDxfId="35"/>
-    <tableColumn id="45" xr3:uid="{B237E090-263B-4E17-B190-219F3035DAD7}" uniqueName="45" name="Coastal/winter rainfall" queryTableFieldId="788" dataDxfId="34"/>
-    <tableColumn id="604" xr3:uid="{CCF58AEF-67DC-4668-9BDD-0800CDDDA614}" uniqueName="604" name="Catchment: Flat &amp; permeable" queryTableFieldId="789" dataDxfId="33"/>
-    <tableColumn id="635" xr3:uid="{04B3847F-CE80-4A2C-BADF-9CA952FB119D}" uniqueName="635" name="Catchment: Steep &amp; impermeable" queryTableFieldId="790" dataDxfId="32"/>
-    <tableColumn id="637" xr3:uid="{B9FBF760-83AB-40AC-916F-56FB1AF85EA1}" uniqueName="637" name="Rural areas (%)" queryTableFieldId="792" dataDxfId="31"/>
-    <tableColumn id="642" xr3:uid="{3C63F0AC-F115-4138-BED5-83F86887240E}" uniqueName="642" name="Urban areas (%)" queryTableFieldId="791" dataDxfId="30"/>
-    <tableColumn id="643" xr3:uid="{CF1AD5CF-4B27-4E49-86A5-35081B0A8F0B}" uniqueName="643" name="Lake areas (%)" queryTableFieldId="793" dataDxfId="29"/>
-    <tableColumn id="644" xr3:uid="{A1623B86-7833-4496-BCD9-F9CD5F7C8B97}" uniqueName="644" name="Dolomite areas (%)" queryTableFieldId="794" dataDxfId="28"/>
-    <tableColumn id="692" xr3:uid="{B61D9183-7147-4DA9-92BF-20C259A5E5CF}" uniqueName="692" name="Main watercourse/river" queryTableFieldId="810" dataDxfId="27"/>
-    <tableColumn id="693" xr3:uid="{E57D87BB-9DEE-477E-9F8A-5475B53BCC96}" uniqueName="693" name="Oveland flow (Lo, km)" queryTableFieldId="809" dataDxfId="26"/>
-    <tableColumn id="691" xr3:uid="{6A34DA67-05BC-42D3-B755-5ACC4AB57A42}" uniqueName="691" name="Overland flow height difference (H,m)" queryTableFieldId="808" dataDxfId="25"/>
-    <tableColumn id="695" xr3:uid="{0A6D1FDD-32C9-4439-A1B6-43302695AC17}" uniqueName="695" name="Overland surface flow description" queryTableFieldId="812" dataDxfId="24"/>
-    <tableColumn id="694" xr3:uid="{701667D2-3F98-4375-9BDE-DC02DB068A39}" uniqueName="694" name="Distance to catchment centroid (Lc, km)" queryTableFieldId="811" dataDxfId="23"/>
-    <tableColumn id="696" xr3:uid="{89AE4CC0-CC72-4D63-BEA4-0A1F7BDDA1EA}" uniqueName="696" name="Longest main watercourse (Lch, km)" queryTableFieldId="813" dataDxfId="22"/>
-    <tableColumn id="690" xr3:uid="{F61E9228-BCBA-4039-BE27-AD00961FBCB1}" uniqueName="690" name="Average main watercourse slope (Sch, m/m" queryTableFieldId="807" dataDxfId="21"/>
-    <tableColumn id="702" xr3:uid="{98AF4A86-701C-4484-AEE2-3E4B91CB961D}" uniqueName="702" name="Flow path length (km)" queryTableFieldId="818" dataDxfId="20"/>
-    <tableColumn id="701" xr3:uid="{4284E80A-BBE8-40EB-935C-E847CE07DC2C}" uniqueName="701" name="Slope (m/m)" queryTableFieldId="817" dataDxfId="19"/>
-    <tableColumn id="700" xr3:uid="{42C2F9AE-2490-4810-B6BE-48A16DB17151}" uniqueName="700" name="Manning's n valiue" queryTableFieldId="816" dataDxfId="18"/>
-    <tableColumn id="698" xr3:uid="{0D3CD64B-C140-4E78-9DE8-1EC82138F158}" uniqueName="698" name="Actual velocity (m/s)" queryTableFieldId="815" dataDxfId="17"/>
-    <tableColumn id="705" xr3:uid="{FE0A3D68-2F2B-486E-906B-D37F1F8D3A6D}" uniqueName="705" name="Canal length (km)" queryTableFieldId="821" dataDxfId="16"/>
-    <tableColumn id="704" xr3:uid="{5F3F1AA5-827E-432F-A5D8-81433D2AAF96}" uniqueName="704" name="Actual velocity (m/s)2" queryTableFieldId="820" dataDxfId="15"/>
-    <tableColumn id="703" xr3:uid="{3BF226BF-B524-4AD7-ABAF-8344BFE2F107}" uniqueName="703" name="Canal lining" queryTableFieldId="819" dataDxfId="14"/>
-    <tableColumn id="697" xr3:uid="{FEF5FD6A-E5C9-4261-93CA-62639F45B50F}" uniqueName="697" name="Max velocity (m/s)" queryTableFieldId="814" dataDxfId="13"/>
-    <tableColumn id="749" xr3:uid="{384DF821-35FB-4C49-97CF-2F58511357EA}" uniqueName="749" name="Elev_S" queryTableFieldId="854" dataDxfId="12"/>
-    <tableColumn id="748" xr3:uid="{B0AEC24B-8DF6-4CA7-9936-13DDA7536E8E}" uniqueName="748" name="Elev_E" queryTableFieldId="853" dataDxfId="11"/>
-    <tableColumn id="747" xr3:uid="{56EDBC53-2830-4D78-8847-071CDCEB21DF}" uniqueName="747" name="Elev_10" queryTableFieldId="852" dataDxfId="10"/>
-    <tableColumn id="746" xr3:uid="{795E34C0-7A41-4E28-8BB5-F943994CC4F6}" uniqueName="746" name="Elev_85" queryTableFieldId="851" dataDxfId="9"/>
-    <tableColumn id="745" xr3:uid="{248ABE01-C8A5-4DA3-A821-A6C216EBE164}" uniqueName="745" name="S_EqArea" queryTableFieldId="850" dataDxfId="8"/>
-    <tableColumn id="744" xr3:uid="{B8BF30BA-AF0D-4D4D-906E-49C33553D624}" uniqueName="744" name="S_Avg" queryTableFieldId="849" dataDxfId="7"/>
-    <tableColumn id="743" xr3:uid="{B731B321-6EDC-407C-9437-40B0FF142AA1}" uniqueName="743" name="S_Catch_Av" queryTableFieldId="848" dataDxfId="6"/>
-    <tableColumn id="742" xr3:uid="{FB0CD78A-AB3C-4717-B5A0-56722FC56400}" uniqueName="742" name="S_1085" queryTableFieldId="847" dataDxfId="5"/>
-    <tableColumn id="741" xr3:uid="{F9B214AA-603C-4132-8535-7FD8CA734A05}" uniqueName="741" name="CoastD_DD" queryTableFieldId="846" dataDxfId="4"/>
-    <tableColumn id="740" xr3:uid="{9A8DE113-D21E-447F-8A9F-620287170D5A}" uniqueName="740" name="ARF" queryTableFieldId="845" dataDxfId="3"/>
-    <tableColumn id="739" xr3:uid="{C23955BD-F850-4C66-8759-9C40828CEE43}" uniqueName="739" name="ARF-JP Method" queryTableFieldId="844" dataDxfId="2"/>
-    <tableColumn id="738" xr3:uid="{301BBFCF-6C13-4880-BD54-2AB72136A682}" uniqueName="738" name="domClim" queryTableFieldId="843" dataDxfId="1"/>
-    <tableColumn id="750" xr3:uid="{3A690D78-21F7-4A9B-BC45-2427F8A04AFA}" uniqueName="750" name="1x1 Grid RLMA&amp;SI Design Rainfall" queryTableFieldId="855" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{FC6C8776-AD68-41A1-8A49-71D9C6F74C6E}" uniqueName="13" name="Length" queryTableFieldId="13" dataDxfId="39"/>
+    <tableColumn id="44" xr3:uid="{FD77AD37-D455-471A-ACF3-8FA3F16710DE}" uniqueName="44" name="Inland/summer rainfall" queryTableFieldId="787" dataDxfId="38"/>
+    <tableColumn id="45" xr3:uid="{B237E090-263B-4E17-B190-219F3035DAD7}" uniqueName="45" name="Coastal/winter rainfall" queryTableFieldId="788" dataDxfId="37"/>
+    <tableColumn id="604" xr3:uid="{CCF58AEF-67DC-4668-9BDD-0800CDDDA614}" uniqueName="604" name="Catchment: Flat &amp; permeable" queryTableFieldId="789" dataDxfId="36"/>
+    <tableColumn id="635" xr3:uid="{04B3847F-CE80-4A2C-BADF-9CA952FB119D}" uniqueName="635" name="Catchment: Steep &amp; impermeable" queryTableFieldId="790" dataDxfId="35"/>
+    <tableColumn id="637" xr3:uid="{B9FBF760-83AB-40AC-916F-56FB1AF85EA1}" uniqueName="637" name="Rural areas (%)" queryTableFieldId="792" dataDxfId="34"/>
+    <tableColumn id="642" xr3:uid="{3C63F0AC-F115-4138-BED5-83F86887240E}" uniqueName="642" name="Urban areas (%)" queryTableFieldId="791" dataDxfId="33"/>
+    <tableColumn id="643" xr3:uid="{CF1AD5CF-4B27-4E49-86A5-35081B0A8F0B}" uniqueName="643" name="Lake areas (%)" queryTableFieldId="793" dataDxfId="32"/>
+    <tableColumn id="644" xr3:uid="{A1623B86-7833-4496-BCD9-F9CD5F7C8B97}" uniqueName="644" name="Dolomite areas (%)" queryTableFieldId="794" dataDxfId="31"/>
+    <tableColumn id="692" xr3:uid="{B61D9183-7147-4DA9-92BF-20C259A5E5CF}" uniqueName="692" name="Main watercourse/river" queryTableFieldId="810" dataDxfId="30"/>
+    <tableColumn id="693" xr3:uid="{E57D87BB-9DEE-477E-9F8A-5475B53BCC96}" uniqueName="693" name="Oveland flow (Lo, km)" queryTableFieldId="809" dataDxfId="29"/>
+    <tableColumn id="691" xr3:uid="{6A34DA67-05BC-42D3-B755-5ACC4AB57A42}" uniqueName="691" name="Overland flow height difference (H,m)" queryTableFieldId="808" dataDxfId="28"/>
+    <tableColumn id="695" xr3:uid="{0A6D1FDD-32C9-4439-A1B6-43302695AC17}" uniqueName="695" name="Overland surface flow description" queryTableFieldId="812" dataDxfId="27"/>
+    <tableColumn id="694" xr3:uid="{701667D2-3F98-4375-9BDE-DC02DB068A39}" uniqueName="694" name="Distance to catchment centroid (Lc, km)" queryTableFieldId="811" dataDxfId="26"/>
+    <tableColumn id="696" xr3:uid="{89AE4CC0-CC72-4D63-BEA4-0A1F7BDDA1EA}" uniqueName="696" name="Longest main watercourse (Lch, km)" queryTableFieldId="813" dataDxfId="25"/>
+    <tableColumn id="690" xr3:uid="{F61E9228-BCBA-4039-BE27-AD00961FBCB1}" uniqueName="690" name="Average main watercourse slope (Sch, m/m" queryTableFieldId="807" dataDxfId="24"/>
+    <tableColumn id="702" xr3:uid="{98AF4A86-701C-4484-AEE2-3E4B91CB961D}" uniqueName="702" name="Flow path length (km)" queryTableFieldId="818" dataDxfId="23"/>
+    <tableColumn id="701" xr3:uid="{4284E80A-BBE8-40EB-935C-E847CE07DC2C}" uniqueName="701" name="Slope (m/m)" queryTableFieldId="817" dataDxfId="22"/>
+    <tableColumn id="700" xr3:uid="{42C2F9AE-2490-4810-B6BE-48A16DB17151}" uniqueName="700" name="Manning's n valiue" queryTableFieldId="816" dataDxfId="21"/>
+    <tableColumn id="698" xr3:uid="{0D3CD64B-C140-4E78-9DE8-1EC82138F158}" uniqueName="698" name="Actual velocity (m/s)" queryTableFieldId="815" dataDxfId="20"/>
+    <tableColumn id="705" xr3:uid="{FE0A3D68-2F2B-486E-906B-D37F1F8D3A6D}" uniqueName="705" name="Canal length (km)" queryTableFieldId="821" dataDxfId="19"/>
+    <tableColumn id="704" xr3:uid="{5F3F1AA5-827E-432F-A5D8-81433D2AAF96}" uniqueName="704" name="Actual velocity (m/s)2" queryTableFieldId="820" dataDxfId="18"/>
+    <tableColumn id="703" xr3:uid="{3BF226BF-B524-4AD7-ABAF-8344BFE2F107}" uniqueName="703" name="Canal lining" queryTableFieldId="819" dataDxfId="17"/>
+    <tableColumn id="697" xr3:uid="{FEF5FD6A-E5C9-4261-93CA-62639F45B50F}" uniqueName="697" name="Max velocity (m/s)" queryTableFieldId="814" dataDxfId="16"/>
+    <tableColumn id="749" xr3:uid="{384DF821-35FB-4C49-97CF-2F58511357EA}" uniqueName="749" name="Elev_S" queryTableFieldId="854" dataDxfId="15"/>
+    <tableColumn id="748" xr3:uid="{B0AEC24B-8DF6-4CA7-9936-13DDA7536E8E}" uniqueName="748" name="Elev_E" queryTableFieldId="853" dataDxfId="14"/>
+    <tableColumn id="747" xr3:uid="{56EDBC53-2830-4D78-8847-071CDCEB21DF}" uniqueName="747" name="Elev_10" queryTableFieldId="852" dataDxfId="13"/>
+    <tableColumn id="746" xr3:uid="{795E34C0-7A41-4E28-8BB5-F943994CC4F6}" uniqueName="746" name="Elev_85" queryTableFieldId="851" dataDxfId="12"/>
+    <tableColumn id="745" xr3:uid="{248ABE01-C8A5-4DA3-A821-A6C216EBE164}" uniqueName="745" name="S_EqArea" queryTableFieldId="850" dataDxfId="11"/>
+    <tableColumn id="744" xr3:uid="{B8BF30BA-AF0D-4D4D-906E-49C33553D624}" uniqueName="744" name="S_Avg" queryTableFieldId="849" dataDxfId="10"/>
+    <tableColumn id="743" xr3:uid="{B731B321-6EDC-407C-9437-40B0FF142AA1}" uniqueName="743" name="S_Catch_Av" queryTableFieldId="848" dataDxfId="9"/>
+    <tableColumn id="742" xr3:uid="{FB0CD78A-AB3C-4717-B5A0-56722FC56400}" uniqueName="742" name="S_1085" queryTableFieldId="847" dataDxfId="8"/>
+    <tableColumn id="741" xr3:uid="{F9B214AA-603C-4132-8535-7FD8CA734A05}" uniqueName="741" name="CoastD_DD" queryTableFieldId="846" dataDxfId="7"/>
+    <tableColumn id="740" xr3:uid="{9A8DE113-D21E-447F-8A9F-620287170D5A}" uniqueName="740" name="ARF" queryTableFieldId="845" dataDxfId="6"/>
+    <tableColumn id="739" xr3:uid="{C23955BD-F850-4C66-8759-9C40828CEE43}" uniqueName="739" name="ARF-JP Method" queryTableFieldId="844" dataDxfId="5"/>
+    <tableColumn id="738" xr3:uid="{301BBFCF-6C13-4880-BD54-2AB72136A682}" uniqueName="738" name="domClim" queryTableFieldId="843" dataDxfId="4"/>
+    <tableColumn id="750" xr3:uid="{3A690D78-21F7-4A9B-BC45-2427F8A04AFA}" uniqueName="750" name="1x1 Grid RLMA&amp;SI Design Rainfall" queryTableFieldId="855" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{942AD8EF-FB74-4F7B-BF72-D7C95A074CE0}" uniqueName="4" name="Single Rainfall Station" queryTableFieldId="857" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{A1FCFFFB-C4DE-40BE-A29D-5E33165CD174}" uniqueName="5" name="Multiple Rainfall Station" queryTableFieldId="858" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{B22BDF23-FFAB-492D-836A-55734E222DEA}" uniqueName="6" name="MAP" queryTableFieldId="859" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17003,128 +17146,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE33ACF-3452-499B-B6F3-B9A7B6BE41B3}">
-  <dimension ref="A1:BC536"/>
+  <dimension ref="A1:BF536"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AZ4" sqref="AZ4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="28" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" style="7" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.6640625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="34.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="38.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="34.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="38.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="24.109375" style="7" customWidth="1"/>
-    <col min="28" max="28" width="28.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="26.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="42.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="38.109375" style="7" customWidth="1"/>
-    <col min="32" max="32" width="43.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="40.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="47.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="26.6640625" style="7" customWidth="1"/>
-    <col min="36" max="36" width="17.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="24.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="25.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="22.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="26.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="23.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.6640625" style="7" customWidth="1"/>
-    <col min="45" max="46" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.140625" style="7" customWidth="1"/>
+    <col min="28" max="28" width="28.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="42.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="38.140625" style="7" customWidth="1"/>
+    <col min="32" max="32" width="43.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="40.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="47.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="26.7109375" style="7" customWidth="1"/>
+    <col min="36" max="36" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="24.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="25.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="22.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="26.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="23.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.7109375" style="7" customWidth="1"/>
+    <col min="45" max="46" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="17" style="7" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="20.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="38.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="20.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="38.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:58" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>4770</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="16"/>
-      <c r="AR1" s="16"/>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="16"/>
-      <c r="AU1" s="16"/>
-      <c r="AV1" s="16"/>
-      <c r="AW1" s="16"/>
-      <c r="AX1" s="16"/>
-      <c r="AY1" s="16"/>
-      <c r="AZ1" s="16"/>
-      <c r="BA1" s="16"/>
-      <c r="BB1" s="16"/>
-      <c r="BC1" s="17"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
+      <c r="AO1" s="30"/>
+      <c r="AP1" s="30"/>
+      <c r="AQ1" s="30"/>
+      <c r="AR1" s="30"/>
+      <c r="AS1" s="30"/>
+      <c r="AT1" s="30"/>
+      <c r="AU1" s="30"/>
+      <c r="AV1" s="30"/>
+      <c r="AW1" s="30"/>
+      <c r="AX1" s="30"/>
+      <c r="AY1" s="30"/>
+      <c r="AZ1" s="30"/>
+      <c r="BA1" s="30"/>
+      <c r="BB1" s="30"/>
+      <c r="BC1" s="30"/>
+      <c r="BD1" s="30"/>
+      <c r="BE1" s="30"/>
+      <c r="BF1" s="30"/>
     </row>
-    <row r="2" spans="1:55" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:58" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -17201,11 +17349,14 @@
       <c r="BB2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="BC2" s="3" t="s">
+      <c r="BC2" s="27" t="s">
         <v>11</v>
       </c>
+      <c r="BD2" s="28"/>
+      <c r="BE2" s="28"/>
+      <c r="BF2" s="29"/>
     </row>
-    <row r="3" spans="1:55" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -17371,8 +17522,17 @@
       <c r="BC3" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="BD3" s="5" t="s">
+        <v>4771</v>
+      </c>
+      <c r="BE3" s="5" t="s">
+        <v>4772</v>
+      </c>
+      <c r="BF3" s="5" t="s">
+        <v>4773</v>
+      </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>65</v>
       </c>
@@ -17491,8 +17651,11 @@
         <v>12</v>
       </c>
       <c r="BC4" s="6"/>
+      <c r="BD4" s="25"/>
+      <c r="BE4" s="25"/>
+      <c r="BF4" s="25"/>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>80</v>
       </c>
@@ -17611,8 +17774,11 @@
         <v>12</v>
       </c>
       <c r="BC5" s="6"/>
+      <c r="BD5" s="24"/>
+      <c r="BE5" s="24"/>
+      <c r="BF5" s="25"/>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>92</v>
       </c>
@@ -17731,8 +17897,11 @@
         <v>12</v>
       </c>
       <c r="BC6" s="6"/>
+      <c r="BD6" s="24"/>
+      <c r="BE6" s="24"/>
+      <c r="BF6" s="25"/>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>105</v>
       </c>
@@ -17851,8 +18020,11 @@
         <v>12</v>
       </c>
       <c r="BC7" s="6"/>
+      <c r="BD7" s="24"/>
+      <c r="BE7" s="24"/>
+      <c r="BF7" s="25"/>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>117</v>
       </c>
@@ -17971,8 +18143,11 @@
         <v>12</v>
       </c>
       <c r="BC8" s="6"/>
+      <c r="BD8" s="24"/>
+      <c r="BE8" s="24"/>
+      <c r="BF8" s="25"/>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>129</v>
       </c>
@@ -18091,8 +18266,11 @@
         <v>12</v>
       </c>
       <c r="BC9" s="6"/>
+      <c r="BD9" s="24"/>
+      <c r="BE9" s="24"/>
+      <c r="BF9" s="25"/>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>140</v>
       </c>
@@ -18211,8 +18389,11 @@
         <v>12</v>
       </c>
       <c r="BC10" s="6"/>
+      <c r="BD10" s="24"/>
+      <c r="BE10" s="24"/>
+      <c r="BF10" s="25"/>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>152</v>
       </c>
@@ -18331,8 +18512,11 @@
         <v>12</v>
       </c>
       <c r="BC11" s="6"/>
+      <c r="BD11" s="24"/>
+      <c r="BE11" s="24"/>
+      <c r="BF11" s="25"/>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>163</v>
       </c>
@@ -18451,8 +18635,11 @@
         <v>11</v>
       </c>
       <c r="BC12" s="6"/>
+      <c r="BD12" s="24"/>
+      <c r="BE12" s="24"/>
+      <c r="BF12" s="25"/>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>175</v>
       </c>
@@ -18569,8 +18756,11 @@
         <v>12</v>
       </c>
       <c r="BC13" s="6"/>
+      <c r="BD13" s="24"/>
+      <c r="BE13" s="24"/>
+      <c r="BF13" s="25"/>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>186</v>
       </c>
@@ -18687,8 +18877,11 @@
         <v>12</v>
       </c>
       <c r="BC14" s="6"/>
+      <c r="BD14" s="24"/>
+      <c r="BE14" s="24"/>
+      <c r="BF14" s="25"/>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>194</v>
       </c>
@@ -18807,8 +19000,11 @@
         <v>12</v>
       </c>
       <c r="BC15" s="6"/>
+      <c r="BD15" s="24"/>
+      <c r="BE15" s="24"/>
+      <c r="BF15" s="25"/>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>205</v>
       </c>
@@ -18927,8 +19123,11 @@
         <v>12</v>
       </c>
       <c r="BC16" s="6"/>
+      <c r="BD16" s="24"/>
+      <c r="BE16" s="24"/>
+      <c r="BF16" s="25"/>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>216</v>
       </c>
@@ -19047,8 +19246,11 @@
         <v>12</v>
       </c>
       <c r="BC17" s="6"/>
+      <c r="BD17" s="24"/>
+      <c r="BE17" s="24"/>
+      <c r="BF17" s="25"/>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>227</v>
       </c>
@@ -19167,8 +19369,11 @@
         <v>12</v>
       </c>
       <c r="BC18" s="6"/>
+      <c r="BD18" s="24"/>
+      <c r="BE18" s="24"/>
+      <c r="BF18" s="25"/>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>238</v>
       </c>
@@ -19287,8 +19492,11 @@
         <v>12</v>
       </c>
       <c r="BC19" s="6"/>
+      <c r="BD19" s="24"/>
+      <c r="BE19" s="24"/>
+      <c r="BF19" s="25"/>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>249</v>
       </c>
@@ -19405,8 +19613,11 @@
         <v>12</v>
       </c>
       <c r="BC20" s="6"/>
+      <c r="BD20" s="24"/>
+      <c r="BE20" s="24"/>
+      <c r="BF20" s="25"/>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>261</v>
       </c>
@@ -19525,8 +19736,11 @@
         <v>12</v>
       </c>
       <c r="BC21" s="6"/>
+      <c r="BD21" s="24"/>
+      <c r="BE21" s="24"/>
+      <c r="BF21" s="25"/>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>272</v>
       </c>
@@ -19645,8 +19859,11 @@
         <v>12</v>
       </c>
       <c r="BC22" s="6"/>
+      <c r="BD22" s="24"/>
+      <c r="BE22" s="24"/>
+      <c r="BF22" s="25"/>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>283</v>
       </c>
@@ -19765,8 +19982,11 @@
         <v>11</v>
       </c>
       <c r="BC23" s="6"/>
+      <c r="BD23" s="24"/>
+      <c r="BE23" s="24"/>
+      <c r="BF23" s="25"/>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>294</v>
       </c>
@@ -19885,8 +20105,11 @@
         <v>12</v>
       </c>
       <c r="BC24" s="6"/>
+      <c r="BD24" s="24"/>
+      <c r="BE24" s="24"/>
+      <c r="BF24" s="25"/>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>305</v>
       </c>
@@ -20005,8 +20228,11 @@
         <v>11</v>
       </c>
       <c r="BC25" s="6"/>
+      <c r="BD25" s="24"/>
+      <c r="BE25" s="24"/>
+      <c r="BF25" s="25"/>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>316</v>
       </c>
@@ -20123,8 +20349,11 @@
         <v>11</v>
       </c>
       <c r="BC26" s="6"/>
+      <c r="BD26" s="24"/>
+      <c r="BE26" s="24"/>
+      <c r="BF26" s="25"/>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>328</v>
       </c>
@@ -20243,8 +20472,11 @@
         <v>11</v>
       </c>
       <c r="BC27" s="6"/>
+      <c r="BD27" s="24"/>
+      <c r="BE27" s="24"/>
+      <c r="BF27" s="25"/>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>338</v>
       </c>
@@ -20361,8 +20593,11 @@
         <v>12</v>
       </c>
       <c r="BC28" s="6"/>
+      <c r="BD28" s="24"/>
+      <c r="BE28" s="24"/>
+      <c r="BF28" s="25"/>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>346</v>
       </c>
@@ -20479,8 +20714,11 @@
         <v>12</v>
       </c>
       <c r="BC29" s="8"/>
+      <c r="BD29" s="24"/>
+      <c r="BE29" s="24"/>
+      <c r="BF29" s="25"/>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>357</v>
       </c>
@@ -20597,8 +20835,11 @@
         <v>11</v>
       </c>
       <c r="BC30" s="8"/>
+      <c r="BD30" s="24"/>
+      <c r="BE30" s="24"/>
+      <c r="BF30" s="25"/>
     </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>369</v>
       </c>
@@ -20715,8 +20956,11 @@
         <v>11</v>
       </c>
       <c r="BC31" s="8"/>
+      <c r="BD31" s="24"/>
+      <c r="BE31" s="24"/>
+      <c r="BF31" s="25"/>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>380</v>
       </c>
@@ -20833,8 +21077,11 @@
         <v>11</v>
       </c>
       <c r="BC32" s="8"/>
+      <c r="BD32" s="24"/>
+      <c r="BE32" s="24"/>
+      <c r="BF32" s="25"/>
     </row>
-    <row r="33" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>391</v>
       </c>
@@ -20951,8 +21198,11 @@
         <v>12</v>
       </c>
       <c r="BC33" s="8"/>
+      <c r="BD33" s="24"/>
+      <c r="BE33" s="24"/>
+      <c r="BF33" s="25"/>
     </row>
-    <row r="34" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>403</v>
       </c>
@@ -21069,8 +21319,11 @@
         <v>12</v>
       </c>
       <c r="BC34" s="8"/>
+      <c r="BD34" s="24"/>
+      <c r="BE34" s="24"/>
+      <c r="BF34" s="25"/>
     </row>
-    <row r="35" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>414</v>
       </c>
@@ -21187,8 +21440,11 @@
         <v>11</v>
       </c>
       <c r="BC35" s="8"/>
+      <c r="BD35" s="24"/>
+      <c r="BE35" s="24"/>
+      <c r="BF35" s="25"/>
     </row>
-    <row r="36" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>426</v>
       </c>
@@ -21305,8 +21561,11 @@
         <v>6</v>
       </c>
       <c r="BC36" s="8"/>
+      <c r="BD36" s="24"/>
+      <c r="BE36" s="24"/>
+      <c r="BF36" s="25"/>
     </row>
-    <row r="37" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>438</v>
       </c>
@@ -21423,8 +21682,11 @@
         <v>11</v>
       </c>
       <c r="BC37" s="8"/>
+      <c r="BD37" s="24"/>
+      <c r="BE37" s="24"/>
+      <c r="BF37" s="25"/>
     </row>
-    <row r="38" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>449</v>
       </c>
@@ -21541,8 +21803,11 @@
         <v>12</v>
       </c>
       <c r="BC38" s="8"/>
+      <c r="BD38" s="24"/>
+      <c r="BE38" s="24"/>
+      <c r="BF38" s="25"/>
     </row>
-    <row r="39" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>460</v>
       </c>
@@ -21659,8 +21924,11 @@
         <v>11</v>
       </c>
       <c r="BC39" s="8"/>
+      <c r="BD39" s="24"/>
+      <c r="BE39" s="24"/>
+      <c r="BF39" s="25"/>
     </row>
-    <row r="40" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>473</v>
       </c>
@@ -21777,8 +22045,11 @@
         <v>7</v>
       </c>
       <c r="BC40" s="8"/>
+      <c r="BD40" s="24"/>
+      <c r="BE40" s="24"/>
+      <c r="BF40" s="25"/>
     </row>
-    <row r="41" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>485</v>
       </c>
@@ -21895,8 +22166,11 @@
         <v>7</v>
       </c>
       <c r="BC41" s="8"/>
+      <c r="BD41" s="24"/>
+      <c r="BE41" s="24"/>
+      <c r="BF41" s="25"/>
     </row>
-    <row r="42" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>497</v>
       </c>
@@ -22013,8 +22287,11 @@
         <v>6</v>
       </c>
       <c r="BC42" s="8"/>
+      <c r="BD42" s="24"/>
+      <c r="BE42" s="24"/>
+      <c r="BF42" s="25"/>
     </row>
-    <row r="43" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>510</v>
       </c>
@@ -22133,8 +22410,11 @@
         <v>11</v>
       </c>
       <c r="BC43" s="6"/>
+      <c r="BD43" s="24"/>
+      <c r="BE43" s="24"/>
+      <c r="BF43" s="25"/>
     </row>
-    <row r="44" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>524</v>
       </c>
@@ -22253,8 +22533,11 @@
         <v>6</v>
       </c>
       <c r="BC44" s="6"/>
+      <c r="BD44" s="24"/>
+      <c r="BE44" s="24"/>
+      <c r="BF44" s="25"/>
     </row>
-    <row r="45" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>535</v>
       </c>
@@ -22371,8 +22654,11 @@
         <v>11</v>
       </c>
       <c r="BC45" s="8"/>
+      <c r="BD45" s="24"/>
+      <c r="BE45" s="24"/>
+      <c r="BF45" s="25"/>
     </row>
-    <row r="46" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>545</v>
       </c>
@@ -22491,8 +22777,11 @@
         <v>12</v>
       </c>
       <c r="BC46" s="6"/>
+      <c r="BD46" s="24"/>
+      <c r="BE46" s="24"/>
+      <c r="BF46" s="25"/>
     </row>
-    <row r="47" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>558</v>
       </c>
@@ -22611,8 +22900,11 @@
         <v>6</v>
       </c>
       <c r="BC47" s="8"/>
+      <c r="BD47" s="24"/>
+      <c r="BE47" s="24"/>
+      <c r="BF47" s="25"/>
     </row>
-    <row r="48" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>568</v>
       </c>
@@ -22731,8 +23023,11 @@
         <v>6</v>
       </c>
       <c r="BC48" s="8"/>
+      <c r="BD48" s="24"/>
+      <c r="BE48" s="24"/>
+      <c r="BF48" s="25"/>
     </row>
-    <row r="49" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>580</v>
       </c>
@@ -22851,8 +23146,11 @@
         <v>12</v>
       </c>
       <c r="BC49" s="6"/>
+      <c r="BD49" s="24"/>
+      <c r="BE49" s="24"/>
+      <c r="BF49" s="25"/>
     </row>
-    <row r="50" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>594</v>
       </c>
@@ -22971,8 +23269,11 @@
         <v>11</v>
       </c>
       <c r="BC50" s="6"/>
+      <c r="BD50" s="24"/>
+      <c r="BE50" s="24"/>
+      <c r="BF50" s="25"/>
     </row>
-    <row r="51" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>605</v>
       </c>
@@ -23091,8 +23392,11 @@
         <v>12</v>
       </c>
       <c r="BC51" s="6"/>
+      <c r="BD51" s="24"/>
+      <c r="BE51" s="24"/>
+      <c r="BF51" s="25"/>
     </row>
-    <row r="52" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>616</v>
       </c>
@@ -23211,8 +23515,11 @@
         <v>11</v>
       </c>
       <c r="BC52" s="6"/>
+      <c r="BD52" s="24"/>
+      <c r="BE52" s="24"/>
+      <c r="BF52" s="25"/>
     </row>
-    <row r="53" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>626</v>
       </c>
@@ -23331,8 +23638,11 @@
         <v>12</v>
       </c>
       <c r="BC53" s="6"/>
+      <c r="BD53" s="24"/>
+      <c r="BE53" s="24"/>
+      <c r="BF53" s="25"/>
     </row>
-    <row r="54" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>635</v>
       </c>
@@ -23451,8 +23761,11 @@
         <v>11</v>
       </c>
       <c r="BC54" s="6"/>
+      <c r="BD54" s="24"/>
+      <c r="BE54" s="24"/>
+      <c r="BF54" s="25"/>
     </row>
-    <row r="55" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>644</v>
       </c>
@@ -23571,8 +23884,11 @@
         <v>11</v>
       </c>
       <c r="BC55" s="6"/>
+      <c r="BD55" s="24"/>
+      <c r="BE55" s="24"/>
+      <c r="BF55" s="25"/>
     </row>
-    <row r="56" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>652</v>
       </c>
@@ -23691,8 +24007,11 @@
         <v>6</v>
       </c>
       <c r="BC56" s="6"/>
+      <c r="BD56" s="24"/>
+      <c r="BE56" s="24"/>
+      <c r="BF56" s="25"/>
     </row>
-    <row r="57" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>662</v>
       </c>
@@ -23809,8 +24128,11 @@
         <v>12</v>
       </c>
       <c r="BC57" s="6"/>
+      <c r="BD57" s="24"/>
+      <c r="BE57" s="24"/>
+      <c r="BF57" s="25"/>
     </row>
-    <row r="58" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>674</v>
       </c>
@@ -23927,8 +24249,11 @@
         <v>6</v>
       </c>
       <c r="BC58" s="6"/>
+      <c r="BD58" s="24"/>
+      <c r="BE58" s="24"/>
+      <c r="BF58" s="25"/>
     </row>
-    <row r="59" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>687</v>
       </c>
@@ -24047,8 +24372,11 @@
         <v>6</v>
       </c>
       <c r="BC59" s="6"/>
+      <c r="BD59" s="24"/>
+      <c r="BE59" s="24"/>
+      <c r="BF59" s="25"/>
     </row>
-    <row r="60" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>701</v>
       </c>
@@ -24167,8 +24495,11 @@
         <v>6</v>
       </c>
       <c r="BC60" s="6"/>
+      <c r="BD60" s="24"/>
+      <c r="BE60" s="24"/>
+      <c r="BF60" s="25"/>
     </row>
-    <row r="61" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>713</v>
       </c>
@@ -24285,8 +24616,11 @@
         <v>11</v>
       </c>
       <c r="BC61" s="8"/>
+      <c r="BD61" s="24"/>
+      <c r="BE61" s="24"/>
+      <c r="BF61" s="25"/>
     </row>
-    <row r="62" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>727</v>
       </c>
@@ -24403,8 +24737,11 @@
         <v>11</v>
       </c>
       <c r="BC62" s="8"/>
+      <c r="BD62" s="24"/>
+      <c r="BE62" s="24"/>
+      <c r="BF62" s="25"/>
     </row>
-    <row r="63" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>738</v>
       </c>
@@ -24521,8 +24858,11 @@
         <v>12</v>
       </c>
       <c r="BC63" s="8"/>
+      <c r="BD63" s="24"/>
+      <c r="BE63" s="24"/>
+      <c r="BF63" s="25"/>
     </row>
-    <row r="64" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>750</v>
       </c>
@@ -24641,8 +24981,11 @@
         <v>11</v>
       </c>
       <c r="BC64" s="6"/>
+      <c r="BD64" s="24"/>
+      <c r="BE64" s="24"/>
+      <c r="BF64" s="25"/>
     </row>
-    <row r="65" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>764</v>
       </c>
@@ -24759,8 +25102,11 @@
         <v>11</v>
       </c>
       <c r="BC65" s="6"/>
+      <c r="BD65" s="24"/>
+      <c r="BE65" s="24"/>
+      <c r="BF65" s="25"/>
     </row>
-    <row r="66" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>777</v>
       </c>
@@ -24877,8 +25223,11 @@
         <v>11</v>
       </c>
       <c r="BC66" s="6"/>
+      <c r="BD66" s="24"/>
+      <c r="BE66" s="24"/>
+      <c r="BF66" s="25"/>
     </row>
-    <row r="67" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>789</v>
       </c>
@@ -24995,8 +25344,11 @@
         <v>11</v>
       </c>
       <c r="BC67" s="8"/>
+      <c r="BD67" s="24"/>
+      <c r="BE67" s="24"/>
+      <c r="BF67" s="25"/>
     </row>
-    <row r="68" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>801</v>
       </c>
@@ -25113,8 +25465,11 @@
         <v>12</v>
       </c>
       <c r="BC68" s="8"/>
+      <c r="BD68" s="24"/>
+      <c r="BE68" s="24"/>
+      <c r="BF68" s="25"/>
     </row>
-    <row r="69" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>813</v>
       </c>
@@ -25231,8 +25586,11 @@
         <v>11</v>
       </c>
       <c r="BC69" s="8"/>
+      <c r="BD69" s="24"/>
+      <c r="BE69" s="24"/>
+      <c r="BF69" s="25"/>
     </row>
-    <row r="70" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>825</v>
       </c>
@@ -25351,8 +25709,11 @@
         <v>12</v>
       </c>
       <c r="BC70" s="6"/>
+      <c r="BD70" s="24"/>
+      <c r="BE70" s="24"/>
+      <c r="BF70" s="25"/>
     </row>
-    <row r="71" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>840</v>
       </c>
@@ -25471,8 +25832,11 @@
         <v>12</v>
       </c>
       <c r="BC71" s="6"/>
+      <c r="BD71" s="24"/>
+      <c r="BE71" s="24"/>
+      <c r="BF71" s="25"/>
     </row>
-    <row r="72" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>852</v>
       </c>
@@ -25589,8 +25953,11 @@
         <v>12</v>
       </c>
       <c r="BC72" s="6"/>
+      <c r="BD72" s="24"/>
+      <c r="BE72" s="24"/>
+      <c r="BF72" s="25"/>
     </row>
-    <row r="73" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>864</v>
       </c>
@@ -25707,8 +26074,11 @@
         <v>12</v>
       </c>
       <c r="BC73" s="6"/>
+      <c r="BD73" s="24"/>
+      <c r="BE73" s="24"/>
+      <c r="BF73" s="25"/>
     </row>
-    <row r="74" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>877</v>
       </c>
@@ -25825,8 +26195,11 @@
         <v>12</v>
       </c>
       <c r="BC74" s="6"/>
+      <c r="BD74" s="24"/>
+      <c r="BE74" s="24"/>
+      <c r="BF74" s="25"/>
     </row>
-    <row r="75" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>889</v>
       </c>
@@ -25943,8 +26316,11 @@
         <v>12</v>
       </c>
       <c r="BC75" s="6"/>
+      <c r="BD75" s="24"/>
+      <c r="BE75" s="24"/>
+      <c r="BF75" s="25"/>
     </row>
-    <row r="76" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>900</v>
       </c>
@@ -26061,8 +26437,11 @@
         <v>12</v>
       </c>
       <c r="BC76" s="6"/>
+      <c r="BD76" s="24"/>
+      <c r="BE76" s="24"/>
+      <c r="BF76" s="25"/>
     </row>
-    <row r="77" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>912</v>
       </c>
@@ -26179,8 +26558,11 @@
         <v>12</v>
       </c>
       <c r="BC77" s="8"/>
+      <c r="BD77" s="24"/>
+      <c r="BE77" s="24"/>
+      <c r="BF77" s="25"/>
     </row>
-    <row r="78" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>923</v>
       </c>
@@ -26297,8 +26679,11 @@
         <v>12</v>
       </c>
       <c r="BC78" s="8"/>
+      <c r="BD78" s="24"/>
+      <c r="BE78" s="24"/>
+      <c r="BF78" s="25"/>
     </row>
-    <row r="79" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>933</v>
       </c>
@@ -26415,8 +26800,11 @@
         <v>12</v>
       </c>
       <c r="BC79" s="6"/>
+      <c r="BD79" s="24"/>
+      <c r="BE79" s="24"/>
+      <c r="BF79" s="25"/>
     </row>
-    <row r="80" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>947</v>
       </c>
@@ -26533,8 +26921,11 @@
         <v>12</v>
       </c>
       <c r="BC80" s="8"/>
+      <c r="BD80" s="24"/>
+      <c r="BE80" s="24"/>
+      <c r="BF80" s="25"/>
     </row>
-    <row r="81" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>959</v>
       </c>
@@ -26651,8 +27042,11 @@
         <v>12</v>
       </c>
       <c r="BC81" s="6"/>
+      <c r="BD81" s="24"/>
+      <c r="BE81" s="24"/>
+      <c r="BF81" s="25"/>
     </row>
-    <row r="82" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>973</v>
       </c>
@@ -26769,8 +27163,11 @@
         <v>12</v>
       </c>
       <c r="BC82" s="8"/>
+      <c r="BD82" s="24"/>
+      <c r="BE82" s="24"/>
+      <c r="BF82" s="25"/>
     </row>
-    <row r="83" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>986</v>
       </c>
@@ -26887,8 +27284,11 @@
         <v>12</v>
       </c>
       <c r="BC83" s="8"/>
+      <c r="BD83" s="24"/>
+      <c r="BE83" s="24"/>
+      <c r="BF83" s="25"/>
     </row>
-    <row r="84" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>998</v>
       </c>
@@ -27005,8 +27405,11 @@
         <v>6</v>
       </c>
       <c r="BC84" s="8"/>
+      <c r="BD84" s="24"/>
+      <c r="BE84" s="24"/>
+      <c r="BF84" s="25"/>
     </row>
-    <row r="85" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>1010</v>
       </c>
@@ -27123,8 +27526,11 @@
         <v>12</v>
       </c>
       <c r="BC85" s="6"/>
+      <c r="BD85" s="24"/>
+      <c r="BE85" s="24"/>
+      <c r="BF85" s="25"/>
     </row>
-    <row r="86" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>1023</v>
       </c>
@@ -27241,8 +27647,11 @@
         <v>12</v>
       </c>
       <c r="BC86" s="6"/>
+      <c r="BD86" s="24"/>
+      <c r="BE86" s="24"/>
+      <c r="BF86" s="25"/>
     </row>
-    <row r="87" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>1034</v>
       </c>
@@ -27359,8 +27768,11 @@
         <v>12</v>
       </c>
       <c r="BC87" s="8"/>
+      <c r="BD87" s="24"/>
+      <c r="BE87" s="24"/>
+      <c r="BF87" s="25"/>
     </row>
-    <row r="88" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>1046</v>
       </c>
@@ -27477,8 +27889,11 @@
         <v>12</v>
       </c>
       <c r="BC88" s="8"/>
+      <c r="BD88" s="24"/>
+      <c r="BE88" s="24"/>
+      <c r="BF88" s="25"/>
     </row>
-    <row r="89" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>1055</v>
       </c>
@@ -27595,8 +28010,11 @@
         <v>12</v>
       </c>
       <c r="BC89" s="8"/>
+      <c r="BD89" s="24"/>
+      <c r="BE89" s="24"/>
+      <c r="BF89" s="25"/>
     </row>
-    <row r="90" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>1067</v>
       </c>
@@ -27715,8 +28133,11 @@
         <v>12</v>
       </c>
       <c r="BC90" s="6"/>
+      <c r="BD90" s="24"/>
+      <c r="BE90" s="24"/>
+      <c r="BF90" s="25"/>
     </row>
-    <row r="91" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>1081</v>
       </c>
@@ -27833,8 +28254,11 @@
         <v>12</v>
       </c>
       <c r="BC91" s="8"/>
+      <c r="BD91" s="24"/>
+      <c r="BE91" s="24"/>
+      <c r="BF91" s="25"/>
     </row>
-    <row r="92" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>1094</v>
       </c>
@@ -27951,8 +28375,11 @@
         <v>12</v>
       </c>
       <c r="BC92" s="6"/>
+      <c r="BD92" s="24"/>
+      <c r="BE92" s="24"/>
+      <c r="BF92" s="25"/>
     </row>
-    <row r="93" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>1106</v>
       </c>
@@ -28071,8 +28498,11 @@
         <v>12</v>
       </c>
       <c r="BC93" s="6"/>
+      <c r="BD93" s="24"/>
+      <c r="BE93" s="24"/>
+      <c r="BF93" s="25"/>
     </row>
-    <row r="94" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>1118</v>
       </c>
@@ -28191,8 +28621,11 @@
         <v>12</v>
       </c>
       <c r="BC94" s="6"/>
+      <c r="BD94" s="24"/>
+      <c r="BE94" s="24"/>
+      <c r="BF94" s="25"/>
     </row>
-    <row r="95" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>1129</v>
       </c>
@@ -28309,8 +28742,11 @@
         <v>12</v>
       </c>
       <c r="BC95" s="6"/>
+      <c r="BD95" s="24"/>
+      <c r="BE95" s="24"/>
+      <c r="BF95" s="25"/>
     </row>
-    <row r="96" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>1140</v>
       </c>
@@ -28427,8 +28863,11 @@
         <v>12</v>
       </c>
       <c r="BC96" s="8"/>
+      <c r="BD96" s="24"/>
+      <c r="BE96" s="24"/>
+      <c r="BF96" s="25"/>
     </row>
-    <row r="97" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>1151</v>
       </c>
@@ -28545,8 +28984,11 @@
         <v>12</v>
       </c>
       <c r="BC97" s="8"/>
+      <c r="BD97" s="24"/>
+      <c r="BE97" s="24"/>
+      <c r="BF97" s="25"/>
     </row>
-    <row r="98" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>1162</v>
       </c>
@@ -28665,8 +29107,11 @@
         <v>11</v>
       </c>
       <c r="BC98" s="6"/>
+      <c r="BD98" s="24"/>
+      <c r="BE98" s="24"/>
+      <c r="BF98" s="25"/>
     </row>
-    <row r="99" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>1175</v>
       </c>
@@ -28785,8 +29230,11 @@
         <v>11</v>
       </c>
       <c r="BC99" s="6"/>
+      <c r="BD99" s="24"/>
+      <c r="BE99" s="24"/>
+      <c r="BF99" s="25"/>
     </row>
-    <row r="100" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>1187</v>
       </c>
@@ -28905,8 +29353,11 @@
         <v>11</v>
       </c>
       <c r="BC100" s="6"/>
+      <c r="BD100" s="24"/>
+      <c r="BE100" s="24"/>
+      <c r="BF100" s="25"/>
     </row>
-    <row r="101" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>1199</v>
       </c>
@@ -29025,8 +29476,11 @@
         <v>11</v>
       </c>
       <c r="BC101" s="6"/>
+      <c r="BD101" s="24"/>
+      <c r="BE101" s="24"/>
+      <c r="BF101" s="25"/>
     </row>
-    <row r="102" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>1210</v>
       </c>
@@ -29143,8 +29597,11 @@
         <v>11</v>
       </c>
       <c r="BC102" s="6"/>
+      <c r="BD102" s="24"/>
+      <c r="BE102" s="24"/>
+      <c r="BF102" s="25"/>
     </row>
-    <row r="103" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>1218</v>
       </c>
@@ -29261,8 +29718,11 @@
         <v>6</v>
       </c>
       <c r="BC103" s="6"/>
+      <c r="BD103" s="24"/>
+      <c r="BE103" s="24"/>
+      <c r="BF103" s="25"/>
     </row>
-    <row r="104" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>1229</v>
       </c>
@@ -29379,8 +29839,11 @@
         <v>6</v>
       </c>
       <c r="BC104" s="6"/>
+      <c r="BD104" s="24"/>
+      <c r="BE104" s="24"/>
+      <c r="BF104" s="25"/>
     </row>
-    <row r="105" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>1241</v>
       </c>
@@ -29497,8 +29960,11 @@
         <v>11</v>
       </c>
       <c r="BC105" s="8"/>
+      <c r="BD105" s="24"/>
+      <c r="BE105" s="24"/>
+      <c r="BF105" s="25"/>
     </row>
-    <row r="106" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>1252</v>
       </c>
@@ -29615,8 +30081,11 @@
         <v>12</v>
       </c>
       <c r="BC106" s="8"/>
+      <c r="BD106" s="24"/>
+      <c r="BE106" s="24"/>
+      <c r="BF106" s="25"/>
     </row>
-    <row r="107" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>1264</v>
       </c>
@@ -29735,8 +30204,11 @@
         <v>11</v>
       </c>
       <c r="BC107" s="6"/>
+      <c r="BD107" s="24"/>
+      <c r="BE107" s="24"/>
+      <c r="BF107" s="25"/>
     </row>
-    <row r="108" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>1278</v>
       </c>
@@ -29855,8 +30327,11 @@
         <v>6</v>
       </c>
       <c r="BC108" s="6"/>
+      <c r="BD108" s="24"/>
+      <c r="BE108" s="24"/>
+      <c r="BF108" s="25"/>
     </row>
-    <row r="109" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>1291</v>
       </c>
@@ -29973,8 +30448,11 @@
         <v>12</v>
       </c>
       <c r="BC109" s="6"/>
+      <c r="BD109" s="24"/>
+      <c r="BE109" s="24"/>
+      <c r="BF109" s="25"/>
     </row>
-    <row r="110" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>1303</v>
       </c>
@@ -30091,8 +30569,11 @@
         <v>11</v>
       </c>
       <c r="BC110" s="6"/>
+      <c r="BD110" s="24"/>
+      <c r="BE110" s="24"/>
+      <c r="BF110" s="25"/>
     </row>
-    <row r="111" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>1315</v>
       </c>
@@ -30209,8 +30690,11 @@
         <v>6</v>
       </c>
       <c r="BC111" s="6"/>
+      <c r="BD111" s="24"/>
+      <c r="BE111" s="24"/>
+      <c r="BF111" s="25"/>
     </row>
-    <row r="112" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>1327</v>
       </c>
@@ -30327,8 +30811,11 @@
         <v>6</v>
       </c>
       <c r="BC112" s="6"/>
+      <c r="BD112" s="24"/>
+      <c r="BE112" s="24"/>
+      <c r="BF112" s="25"/>
     </row>
-    <row r="113" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>1337</v>
       </c>
@@ -30445,8 +30932,11 @@
         <v>11</v>
       </c>
       <c r="BC113" s="6"/>
+      <c r="BD113" s="24"/>
+      <c r="BE113" s="24"/>
+      <c r="BF113" s="25"/>
     </row>
-    <row r="114" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>1349</v>
       </c>
@@ -30563,8 +31053,11 @@
         <v>12</v>
       </c>
       <c r="BC114" s="8"/>
+      <c r="BD114" s="24"/>
+      <c r="BE114" s="24"/>
+      <c r="BF114" s="25"/>
     </row>
-    <row r="115" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>1360</v>
       </c>
@@ -30681,8 +31174,11 @@
         <v>12</v>
       </c>
       <c r="BC115" s="8"/>
+      <c r="BD115" s="24"/>
+      <c r="BE115" s="24"/>
+      <c r="BF115" s="25"/>
     </row>
-    <row r="116" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>1370</v>
       </c>
@@ -30799,8 +31295,11 @@
         <v>12</v>
       </c>
       <c r="BC116" s="8"/>
+      <c r="BD116" s="24"/>
+      <c r="BE116" s="24"/>
+      <c r="BF116" s="25"/>
     </row>
-    <row r="117" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>1381</v>
       </c>
@@ -30917,8 +31416,11 @@
         <v>12</v>
       </c>
       <c r="BC117" s="8"/>
+      <c r="BD117" s="24"/>
+      <c r="BE117" s="24"/>
+      <c r="BF117" s="25"/>
     </row>
-    <row r="118" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>1392</v>
       </c>
@@ -31035,8 +31537,11 @@
         <v>11</v>
       </c>
       <c r="BC118" s="8"/>
+      <c r="BD118" s="24"/>
+      <c r="BE118" s="24"/>
+      <c r="BF118" s="25"/>
     </row>
-    <row r="119" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>1404</v>
       </c>
@@ -31153,8 +31658,11 @@
         <v>6</v>
       </c>
       <c r="BC119" s="6"/>
+      <c r="BD119" s="24"/>
+      <c r="BE119" s="24"/>
+      <c r="BF119" s="25"/>
     </row>
-    <row r="120" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>1416</v>
       </c>
@@ -31271,8 +31779,11 @@
         <v>6</v>
       </c>
       <c r="BC120" s="6"/>
+      <c r="BD120" s="24"/>
+      <c r="BE120" s="24"/>
+      <c r="BF120" s="25"/>
     </row>
-    <row r="121" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>1428</v>
       </c>
@@ -31389,8 +31900,11 @@
         <v>6</v>
       </c>
       <c r="BC121" s="6"/>
+      <c r="BD121" s="24"/>
+      <c r="BE121" s="24"/>
+      <c r="BF121" s="25"/>
     </row>
-    <row r="122" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>1440</v>
       </c>
@@ -31509,8 +32023,11 @@
         <v>12</v>
       </c>
       <c r="BC122" s="6"/>
+      <c r="BD122" s="24"/>
+      <c r="BE122" s="24"/>
+      <c r="BF122" s="25"/>
     </row>
-    <row r="123" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>1454</v>
       </c>
@@ -31629,8 +32146,11 @@
         <v>12</v>
       </c>
       <c r="BC123" s="6"/>
+      <c r="BD123" s="24"/>
+      <c r="BE123" s="24"/>
+      <c r="BF123" s="25"/>
     </row>
-    <row r="124" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>1467</v>
       </c>
@@ -31749,8 +32269,11 @@
         <v>12</v>
       </c>
       <c r="BC124" s="6"/>
+      <c r="BD124" s="24"/>
+      <c r="BE124" s="24"/>
+      <c r="BF124" s="25"/>
     </row>
-    <row r="125" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>1478</v>
       </c>
@@ -31869,8 +32392,11 @@
         <v>12</v>
       </c>
       <c r="BC125" s="6"/>
+      <c r="BD125" s="24"/>
+      <c r="BE125" s="24"/>
+      <c r="BF125" s="25"/>
     </row>
-    <row r="126" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>1488</v>
       </c>
@@ -31989,8 +32515,11 @@
         <v>12</v>
       </c>
       <c r="BC126" s="6"/>
+      <c r="BD126" s="24"/>
+      <c r="BE126" s="24"/>
+      <c r="BF126" s="25"/>
     </row>
-    <row r="127" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>1498</v>
       </c>
@@ -32107,8 +32636,11 @@
         <v>12</v>
       </c>
       <c r="BC127" s="6"/>
+      <c r="BD127" s="24"/>
+      <c r="BE127" s="24"/>
+      <c r="BF127" s="25"/>
     </row>
-    <row r="128" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>1510</v>
       </c>
@@ -32225,8 +32757,11 @@
         <v>12</v>
       </c>
       <c r="BC128" s="6"/>
+      <c r="BD128" s="24"/>
+      <c r="BE128" s="24"/>
+      <c r="BF128" s="25"/>
     </row>
-    <row r="129" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>1518</v>
       </c>
@@ -32341,8 +32876,11 @@
         <v>12</v>
       </c>
       <c r="BC129" s="6"/>
+      <c r="BD129" s="24"/>
+      <c r="BE129" s="24"/>
+      <c r="BF129" s="25"/>
     </row>
-    <row r="130" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>1530</v>
       </c>
@@ -32459,8 +32997,11 @@
         <v>12</v>
       </c>
       <c r="BC130" s="6"/>
+      <c r="BD130" s="24"/>
+      <c r="BE130" s="24"/>
+      <c r="BF130" s="25"/>
     </row>
-    <row r="131" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>1544</v>
       </c>
@@ -32577,8 +33118,11 @@
         <v>12</v>
       </c>
       <c r="BC131" s="6"/>
+      <c r="BD131" s="24"/>
+      <c r="BE131" s="24"/>
+      <c r="BF131" s="25"/>
     </row>
-    <row r="132" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>1556</v>
       </c>
@@ -32695,8 +33239,11 @@
         <v>12</v>
       </c>
       <c r="BC132" s="6"/>
+      <c r="BD132" s="24"/>
+      <c r="BE132" s="24"/>
+      <c r="BF132" s="25"/>
     </row>
-    <row r="133" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>1565</v>
       </c>
@@ -32815,8 +33362,11 @@
         <v>12</v>
       </c>
       <c r="BC133" s="6"/>
+      <c r="BD133" s="24"/>
+      <c r="BE133" s="24"/>
+      <c r="BF133" s="25"/>
     </row>
-    <row r="134" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>1578</v>
       </c>
@@ -32933,8 +33483,11 @@
         <v>12</v>
       </c>
       <c r="BC134" s="6"/>
+      <c r="BD134" s="24"/>
+      <c r="BE134" s="24"/>
+      <c r="BF134" s="25"/>
     </row>
-    <row r="135" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>1590</v>
       </c>
@@ -33053,8 +33606,11 @@
         <v>12</v>
       </c>
       <c r="BC135" s="6"/>
+      <c r="BD135" s="24"/>
+      <c r="BE135" s="24"/>
+      <c r="BF135" s="25"/>
     </row>
-    <row r="136" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>1602</v>
       </c>
@@ -33171,8 +33727,11 @@
         <v>7</v>
       </c>
       <c r="BC136" s="6"/>
+      <c r="BD136" s="24"/>
+      <c r="BE136" s="24"/>
+      <c r="BF136" s="25"/>
     </row>
-    <row r="137" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>1615</v>
       </c>
@@ -33291,8 +33850,11 @@
         <v>7</v>
       </c>
       <c r="BC137" s="6"/>
+      <c r="BD137" s="24"/>
+      <c r="BE137" s="24"/>
+      <c r="BF137" s="25"/>
     </row>
-    <row r="138" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>1628</v>
       </c>
@@ -33409,8 +33971,11 @@
         <v>7</v>
       </c>
       <c r="BC138" s="6"/>
+      <c r="BD138" s="24"/>
+      <c r="BE138" s="24"/>
+      <c r="BF138" s="25"/>
     </row>
-    <row r="139" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>1637</v>
       </c>
@@ -33527,8 +34092,11 @@
         <v>7</v>
       </c>
       <c r="BC139" s="6"/>
+      <c r="BD139" s="24"/>
+      <c r="BE139" s="24"/>
+      <c r="BF139" s="25"/>
     </row>
-    <row r="140" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>1650</v>
       </c>
@@ -33645,8 +34213,11 @@
         <v>7</v>
       </c>
       <c r="BC140" s="6"/>
+      <c r="BD140" s="24"/>
+      <c r="BE140" s="24"/>
+      <c r="BF140" s="25"/>
     </row>
-    <row r="141" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>1661</v>
       </c>
@@ -33763,8 +34334,11 @@
         <v>12</v>
       </c>
       <c r="BC141" s="6"/>
+      <c r="BD141" s="24"/>
+      <c r="BE141" s="24"/>
+      <c r="BF141" s="25"/>
     </row>
-    <row r="142" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>1671</v>
       </c>
@@ -33881,8 +34455,11 @@
         <v>12</v>
       </c>
       <c r="BC142" s="6"/>
+      <c r="BD142" s="24"/>
+      <c r="BE142" s="24"/>
+      <c r="BF142" s="25"/>
     </row>
-    <row r="143" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>1682</v>
       </c>
@@ -34001,8 +34578,11 @@
         <v>12</v>
       </c>
       <c r="BC143" s="6"/>
+      <c r="BD143" s="24"/>
+      <c r="BE143" s="24"/>
+      <c r="BF143" s="25"/>
     </row>
-    <row r="144" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>1695</v>
       </c>
@@ -34119,8 +34699,11 @@
         <v>12</v>
       </c>
       <c r="BC144" s="6"/>
+      <c r="BD144" s="24"/>
+      <c r="BE144" s="24"/>
+      <c r="BF144" s="25"/>
     </row>
-    <row r="145" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>1708</v>
       </c>
@@ -34237,8 +34820,11 @@
         <v>12</v>
       </c>
       <c r="BC145" s="6"/>
+      <c r="BD145" s="24"/>
+      <c r="BE145" s="24"/>
+      <c r="BF145" s="25"/>
     </row>
-    <row r="146" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>1719</v>
       </c>
@@ -34357,8 +34943,11 @@
         <v>12</v>
       </c>
       <c r="BC146" s="6"/>
+      <c r="BD146" s="24"/>
+      <c r="BE146" s="24"/>
+      <c r="BF146" s="25"/>
     </row>
-    <row r="147" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>1732</v>
       </c>
@@ -34477,8 +35066,11 @@
         <v>12</v>
       </c>
       <c r="BC147" s="6"/>
+      <c r="BD147" s="24"/>
+      <c r="BE147" s="24"/>
+      <c r="BF147" s="25"/>
     </row>
-    <row r="148" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>1745</v>
       </c>
@@ -34597,8 +35189,11 @@
         <v>12</v>
       </c>
       <c r="BC148" s="6"/>
+      <c r="BD148" s="24"/>
+      <c r="BE148" s="24"/>
+      <c r="BF148" s="25"/>
     </row>
-    <row r="149" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>1758</v>
       </c>
@@ -34717,8 +35312,11 @@
         <v>12</v>
       </c>
       <c r="BC149" s="6"/>
+      <c r="BD149" s="24"/>
+      <c r="BE149" s="24"/>
+      <c r="BF149" s="25"/>
     </row>
-    <row r="150" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>1769</v>
       </c>
@@ -34837,8 +35435,11 @@
         <v>12</v>
       </c>
       <c r="BC150" s="6"/>
+      <c r="BD150" s="24"/>
+      <c r="BE150" s="24"/>
+      <c r="BF150" s="25"/>
     </row>
-    <row r="151" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>1780</v>
       </c>
@@ -34955,8 +35556,11 @@
         <v>12</v>
       </c>
       <c r="BC151" s="6"/>
+      <c r="BD151" s="24"/>
+      <c r="BE151" s="24"/>
+      <c r="BF151" s="25"/>
     </row>
-    <row r="152" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>1789</v>
       </c>
@@ -35073,8 +35677,11 @@
         <v>12</v>
       </c>
       <c r="BC152" s="6"/>
+      <c r="BD152" s="24"/>
+      <c r="BE152" s="24"/>
+      <c r="BF152" s="25"/>
     </row>
-    <row r="153" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>1801</v>
       </c>
@@ -35191,8 +35798,11 @@
         <v>12</v>
       </c>
       <c r="BC153" s="6"/>
+      <c r="BD153" s="24"/>
+      <c r="BE153" s="24"/>
+      <c r="BF153" s="25"/>
     </row>
-    <row r="154" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>1813</v>
       </c>
@@ -35309,8 +35919,11 @@
         <v>12</v>
       </c>
       <c r="BC154" s="6"/>
+      <c r="BD154" s="24"/>
+      <c r="BE154" s="24"/>
+      <c r="BF154" s="25"/>
     </row>
-    <row r="155" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>1825</v>
       </c>
@@ -35427,8 +36040,11 @@
         <v>12</v>
       </c>
       <c r="BC155" s="6"/>
+      <c r="BD155" s="24"/>
+      <c r="BE155" s="24"/>
+      <c r="BF155" s="25"/>
     </row>
-    <row r="156" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>1834</v>
       </c>
@@ -35547,8 +36163,11 @@
         <v>12</v>
       </c>
       <c r="BC156" s="6"/>
+      <c r="BD156" s="24"/>
+      <c r="BE156" s="24"/>
+      <c r="BF156" s="25"/>
     </row>
-    <row r="157" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>1847</v>
       </c>
@@ -35665,8 +36284,11 @@
         <v>12</v>
       </c>
       <c r="BC157" s="6"/>
+      <c r="BD157" s="24"/>
+      <c r="BE157" s="24"/>
+      <c r="BF157" s="25"/>
     </row>
-    <row r="158" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>1857</v>
       </c>
@@ -35783,8 +36405,11 @@
         <v>12</v>
       </c>
       <c r="BC158" s="6"/>
+      <c r="BD158" s="24"/>
+      <c r="BE158" s="24"/>
+      <c r="BF158" s="25"/>
     </row>
-    <row r="159" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>1869</v>
       </c>
@@ -35903,8 +36528,11 @@
         <v>7</v>
       </c>
       <c r="BC159" s="6"/>
+      <c r="BD159" s="24"/>
+      <c r="BE159" s="24"/>
+      <c r="BF159" s="25"/>
     </row>
-    <row r="160" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>1884</v>
       </c>
@@ -36021,8 +36649,11 @@
         <v>15</v>
       </c>
       <c r="BC160" s="6"/>
+      <c r="BD160" s="24"/>
+      <c r="BE160" s="24"/>
+      <c r="BF160" s="25"/>
     </row>
-    <row r="161" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>1895</v>
       </c>
@@ -36141,8 +36772,11 @@
         <v>15</v>
       </c>
       <c r="BC161" s="6"/>
+      <c r="BD161" s="24"/>
+      <c r="BE161" s="24"/>
+      <c r="BF161" s="25"/>
     </row>
-    <row r="162" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>1907</v>
       </c>
@@ -36259,8 +36893,11 @@
         <v>12</v>
       </c>
       <c r="BC162" s="6"/>
+      <c r="BD162" s="24"/>
+      <c r="BE162" s="24"/>
+      <c r="BF162" s="25"/>
     </row>
-    <row r="163" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>1918</v>
       </c>
@@ -36377,8 +37014,11 @@
         <v>12</v>
       </c>
       <c r="BC163" s="6"/>
+      <c r="BD163" s="24"/>
+      <c r="BE163" s="24"/>
+      <c r="BF163" s="25"/>
     </row>
-    <row r="164" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
         <v>1929</v>
       </c>
@@ -36495,8 +37135,11 @@
         <v>12</v>
       </c>
       <c r="BC164" s="8"/>
+      <c r="BD164" s="24"/>
+      <c r="BE164" s="24"/>
+      <c r="BF164" s="25"/>
     </row>
-    <row r="165" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
         <v>1939</v>
       </c>
@@ -36613,8 +37256,11 @@
         <v>12</v>
       </c>
       <c r="BC165" s="8"/>
+      <c r="BD165" s="24"/>
+      <c r="BE165" s="24"/>
+      <c r="BF165" s="25"/>
     </row>
-    <row r="166" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>1949</v>
       </c>
@@ -36731,8 +37377,11 @@
         <v>12</v>
       </c>
       <c r="BC166" s="6"/>
+      <c r="BD166" s="24"/>
+      <c r="BE166" s="24"/>
+      <c r="BF166" s="25"/>
     </row>
-    <row r="167" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
         <v>1963</v>
       </c>
@@ -36849,8 +37498,11 @@
         <v>12</v>
       </c>
       <c r="BC167" s="8"/>
+      <c r="BD167" s="24"/>
+      <c r="BE167" s="24"/>
+      <c r="BF167" s="25"/>
     </row>
-    <row r="168" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
         <v>1975</v>
       </c>
@@ -36967,8 +37619,11 @@
         <v>12</v>
       </c>
       <c r="BC168" s="8"/>
+      <c r="BD168" s="24"/>
+      <c r="BE168" s="24"/>
+      <c r="BF168" s="25"/>
     </row>
-    <row r="169" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>1986</v>
       </c>
@@ -37085,8 +37740,11 @@
         <v>7</v>
       </c>
       <c r="BC169" s="6"/>
+      <c r="BD169" s="24"/>
+      <c r="BE169" s="24"/>
+      <c r="BF169" s="25"/>
     </row>
-    <row r="170" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>2000</v>
       </c>
@@ -37203,8 +37861,11 @@
         <v>7</v>
       </c>
       <c r="BC170" s="6"/>
+      <c r="BD170" s="24"/>
+      <c r="BE170" s="24"/>
+      <c r="BF170" s="25"/>
     </row>
-    <row r="171" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>2011</v>
       </c>
@@ -37321,8 +37982,11 @@
         <v>7</v>
       </c>
       <c r="BC171" s="6"/>
+      <c r="BD171" s="24"/>
+      <c r="BE171" s="24"/>
+      <c r="BF171" s="25"/>
     </row>
-    <row r="172" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>2012</v>
       </c>
@@ -37441,8 +38105,11 @@
         <v>5</v>
       </c>
       <c r="BC172" s="6"/>
+      <c r="BD172" s="24"/>
+      <c r="BE172" s="24"/>
+      <c r="BF172" s="25"/>
     </row>
-    <row r="173" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>2025</v>
       </c>
@@ -37559,8 +38226,11 @@
         <v>5</v>
       </c>
       <c r="BC173" s="6"/>
+      <c r="BD173" s="24"/>
+      <c r="BE173" s="24"/>
+      <c r="BF173" s="25"/>
     </row>
-    <row r="174" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>2037</v>
       </c>
@@ -37677,8 +38347,11 @@
         <v>5</v>
       </c>
       <c r="BC174" s="6"/>
+      <c r="BD174" s="24"/>
+      <c r="BE174" s="24"/>
+      <c r="BF174" s="25"/>
     </row>
-    <row r="175" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>2049</v>
       </c>
@@ -37797,8 +38470,11 @@
         <v>5</v>
       </c>
       <c r="BC175" s="6"/>
+      <c r="BD175" s="24"/>
+      <c r="BE175" s="24"/>
+      <c r="BF175" s="25"/>
     </row>
-    <row r="176" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>2061</v>
       </c>
@@ -37917,8 +38593,11 @@
         <v>7</v>
       </c>
       <c r="BC176" s="6"/>
+      <c r="BD176" s="24"/>
+      <c r="BE176" s="24"/>
+      <c r="BF176" s="25"/>
     </row>
-    <row r="177" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>2073</v>
       </c>
@@ -38035,8 +38714,11 @@
         <v>7</v>
       </c>
       <c r="BC177" s="6"/>
+      <c r="BD177" s="24"/>
+      <c r="BE177" s="24"/>
+      <c r="BF177" s="25"/>
     </row>
-    <row r="178" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>2086</v>
       </c>
@@ -38153,8 +38835,11 @@
         <v>7</v>
       </c>
       <c r="BC178" s="6"/>
+      <c r="BD178" s="24"/>
+      <c r="BE178" s="24"/>
+      <c r="BF178" s="25"/>
     </row>
-    <row r="179" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>2096</v>
       </c>
@@ -38273,8 +38958,11 @@
         <v>9</v>
       </c>
       <c r="BC179" s="6"/>
+      <c r="BD179" s="24"/>
+      <c r="BE179" s="24"/>
+      <c r="BF179" s="25"/>
     </row>
-    <row r="180" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>2109</v>
       </c>
@@ -38391,8 +39079,11 @@
         <v>9</v>
       </c>
       <c r="BC180" s="6"/>
+      <c r="BD180" s="24"/>
+      <c r="BE180" s="24"/>
+      <c r="BF180" s="25"/>
     </row>
-    <row r="181" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>2121</v>
       </c>
@@ -38511,8 +39202,11 @@
         <v>5</v>
       </c>
       <c r="BC181" s="6"/>
+      <c r="BD181" s="24"/>
+      <c r="BE181" s="24"/>
+      <c r="BF181" s="25"/>
     </row>
-    <row r="182" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>2133</v>
       </c>
@@ -38629,8 +39323,11 @@
         <v>9</v>
       </c>
       <c r="BC182" s="6"/>
+      <c r="BD182" s="24"/>
+      <c r="BE182" s="24"/>
+      <c r="BF182" s="25"/>
     </row>
-    <row r="183" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>2146</v>
       </c>
@@ -38747,8 +39444,11 @@
         <v>9</v>
       </c>
       <c r="BC183" s="6"/>
+      <c r="BD183" s="24"/>
+      <c r="BE183" s="24"/>
+      <c r="BF183" s="25"/>
     </row>
-    <row r="184" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>2157</v>
       </c>
@@ -38867,8 +39567,11 @@
         <v>9</v>
       </c>
       <c r="BC184" s="6"/>
+      <c r="BD184" s="24"/>
+      <c r="BE184" s="24"/>
+      <c r="BF184" s="25"/>
     </row>
-    <row r="185" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>2171</v>
       </c>
@@ -38985,8 +39688,11 @@
         <v>8</v>
       </c>
       <c r="BC185" s="6"/>
+      <c r="BD185" s="24"/>
+      <c r="BE185" s="24"/>
+      <c r="BF185" s="25"/>
     </row>
-    <row r="186" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>2183</v>
       </c>
@@ -39103,8 +39809,11 @@
         <v>8</v>
       </c>
       <c r="BC186" s="6"/>
+      <c r="BD186" s="24"/>
+      <c r="BE186" s="24"/>
+      <c r="BF186" s="25"/>
     </row>
-    <row r="187" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>2191</v>
       </c>
@@ -39221,8 +39930,11 @@
         <v>8</v>
       </c>
       <c r="BC187" s="6"/>
+      <c r="BD187" s="24"/>
+      <c r="BE187" s="24"/>
+      <c r="BF187" s="25"/>
     </row>
-    <row r="188" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>2201</v>
       </c>
@@ -39339,8 +40051,11 @@
         <v>9</v>
       </c>
       <c r="BC188" s="6"/>
+      <c r="BD188" s="24"/>
+      <c r="BE188" s="24"/>
+      <c r="BF188" s="25"/>
     </row>
-    <row r="189" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>2210</v>
       </c>
@@ -39457,8 +40172,11 @@
         <v>9</v>
       </c>
       <c r="BC189" s="6"/>
+      <c r="BD189" s="24"/>
+      <c r="BE189" s="24"/>
+      <c r="BF189" s="25"/>
     </row>
-    <row r="190" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>2219</v>
       </c>
@@ -39575,8 +40293,11 @@
         <v>9</v>
       </c>
       <c r="BC190" s="6"/>
+      <c r="BD190" s="24"/>
+      <c r="BE190" s="24"/>
+      <c r="BF190" s="25"/>
     </row>
-    <row r="191" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>2227</v>
       </c>
@@ -39693,8 +40414,11 @@
         <v>9</v>
       </c>
       <c r="BC191" s="6"/>
+      <c r="BD191" s="24"/>
+      <c r="BE191" s="24"/>
+      <c r="BF191" s="25"/>
     </row>
-    <row r="192" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>2235</v>
       </c>
@@ -39811,8 +40535,11 @@
         <v>9</v>
       </c>
       <c r="BC192" s="6"/>
+      <c r="BD192" s="24"/>
+      <c r="BE192" s="24"/>
+      <c r="BF192" s="25"/>
     </row>
-    <row r="193" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>2243</v>
       </c>
@@ -39929,8 +40656,11 @@
         <v>9</v>
       </c>
       <c r="BC193" s="6"/>
+      <c r="BD193" s="24"/>
+      <c r="BE193" s="24"/>
+      <c r="BF193" s="25"/>
     </row>
-    <row r="194" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>2253</v>
       </c>
@@ -40047,8 +40777,11 @@
         <v>9</v>
       </c>
       <c r="BC194" s="6"/>
+      <c r="BD194" s="24"/>
+      <c r="BE194" s="24"/>
+      <c r="BF194" s="25"/>
     </row>
-    <row r="195" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
         <v>2262</v>
       </c>
@@ -40165,8 +40898,11 @@
         <v>9</v>
       </c>
       <c r="BC195" s="6"/>
+      <c r="BD195" s="24"/>
+      <c r="BE195" s="24"/>
+      <c r="BF195" s="25"/>
     </row>
-    <row r="196" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>2271</v>
       </c>
@@ -40283,8 +41019,11 @@
         <v>8</v>
       </c>
       <c r="BC196" s="6"/>
+      <c r="BD196" s="24"/>
+      <c r="BE196" s="24"/>
+      <c r="BF196" s="25"/>
     </row>
-    <row r="197" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>2283</v>
       </c>
@@ -40401,8 +41140,11 @@
         <v>9</v>
       </c>
       <c r="BC197" s="6"/>
+      <c r="BD197" s="24"/>
+      <c r="BE197" s="24"/>
+      <c r="BF197" s="25"/>
     </row>
-    <row r="198" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>2296</v>
       </c>
@@ -40519,8 +41261,11 @@
         <v>9</v>
       </c>
       <c r="BC198" s="6"/>
+      <c r="BD198" s="24"/>
+      <c r="BE198" s="24"/>
+      <c r="BF198" s="25"/>
     </row>
-    <row r="199" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>2307</v>
       </c>
@@ -40637,8 +41382,11 @@
         <v>9</v>
       </c>
       <c r="BC199" s="6"/>
+      <c r="BD199" s="24"/>
+      <c r="BE199" s="24"/>
+      <c r="BF199" s="25"/>
     </row>
-    <row r="200" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>2315</v>
       </c>
@@ -40755,8 +41503,11 @@
         <v>9</v>
       </c>
       <c r="BC200" s="6"/>
+      <c r="BD200" s="24"/>
+      <c r="BE200" s="24"/>
+      <c r="BF200" s="25"/>
     </row>
-    <row r="201" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>2325</v>
       </c>
@@ -40873,8 +41624,11 @@
         <v>-999</v>
       </c>
       <c r="BC201" s="6"/>
+      <c r="BD201" s="24"/>
+      <c r="BE201" s="24"/>
+      <c r="BF201" s="25"/>
     </row>
-    <row r="202" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>2333</v>
       </c>
@@ -40991,8 +41745,11 @@
         <v>9</v>
       </c>
       <c r="BC202" s="6"/>
+      <c r="BD202" s="24"/>
+      <c r="BE202" s="24"/>
+      <c r="BF202" s="25"/>
     </row>
-    <row r="203" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>2341</v>
       </c>
@@ -41109,8 +41866,11 @@
         <v>9</v>
       </c>
       <c r="BC203" s="6"/>
+      <c r="BD203" s="24"/>
+      <c r="BE203" s="24"/>
+      <c r="BF203" s="25"/>
     </row>
-    <row r="204" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>2352</v>
       </c>
@@ -41227,8 +41987,11 @@
         <v>9</v>
       </c>
       <c r="BC204" s="6"/>
+      <c r="BD204" s="24"/>
+      <c r="BE204" s="24"/>
+      <c r="BF204" s="25"/>
     </row>
-    <row r="205" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>2363</v>
       </c>
@@ -41347,8 +42110,11 @@
         <v>9</v>
       </c>
       <c r="BC205" s="6"/>
+      <c r="BD205" s="24"/>
+      <c r="BE205" s="24"/>
+      <c r="BF205" s="25"/>
     </row>
-    <row r="206" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>2377</v>
       </c>
@@ -41465,8 +42231,11 @@
         <v>9</v>
       </c>
       <c r="BC206" s="6"/>
+      <c r="BD206" s="24"/>
+      <c r="BE206" s="24"/>
+      <c r="BF206" s="25"/>
     </row>
-    <row r="207" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>2388</v>
       </c>
@@ -41583,8 +42352,11 @@
         <v>9</v>
       </c>
       <c r="BC207" s="6"/>
+      <c r="BD207" s="24"/>
+      <c r="BE207" s="24"/>
+      <c r="BF207" s="25"/>
     </row>
-    <row r="208" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>2398</v>
       </c>
@@ -41703,8 +42475,11 @@
         <v>9</v>
       </c>
       <c r="BC208" s="6"/>
+      <c r="BD208" s="24"/>
+      <c r="BE208" s="24"/>
+      <c r="BF208" s="25"/>
     </row>
-    <row r="209" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>2407</v>
       </c>
@@ -41821,8 +42596,11 @@
         <v>9</v>
       </c>
       <c r="BC209" s="6"/>
+      <c r="BD209" s="24"/>
+      <c r="BE209" s="24"/>
+      <c r="BF209" s="25"/>
     </row>
-    <row r="210" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>2415</v>
       </c>
@@ -41939,8 +42717,11 @@
         <v>9</v>
       </c>
       <c r="BC210" s="6"/>
+      <c r="BD210" s="24"/>
+      <c r="BE210" s="24"/>
+      <c r="BF210" s="25"/>
     </row>
-    <row r="211" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
         <v>2427</v>
       </c>
@@ -42057,8 +42838,11 @@
         <v>7</v>
       </c>
       <c r="BC211" s="6"/>
+      <c r="BD211" s="24"/>
+      <c r="BE211" s="24"/>
+      <c r="BF211" s="25"/>
     </row>
-    <row r="212" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>2437</v>
       </c>
@@ -42175,8 +42959,11 @@
         <v>7</v>
       </c>
       <c r="BC212" s="6"/>
+      <c r="BD212" s="24"/>
+      <c r="BE212" s="24"/>
+      <c r="BF212" s="25"/>
     </row>
-    <row r="213" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
         <v>2451</v>
       </c>
@@ -42293,8 +43080,11 @@
         <v>7</v>
       </c>
       <c r="BC213" s="6"/>
+      <c r="BD213" s="24"/>
+      <c r="BE213" s="24"/>
+      <c r="BF213" s="25"/>
     </row>
-    <row r="214" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
         <v>2462</v>
       </c>
@@ -42411,8 +43201,11 @@
         <v>7</v>
       </c>
       <c r="BC214" s="6"/>
+      <c r="BD214" s="24"/>
+      <c r="BE214" s="24"/>
+      <c r="BF214" s="25"/>
     </row>
-    <row r="215" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>2475</v>
       </c>
@@ -42529,8 +43322,11 @@
         <v>9</v>
       </c>
       <c r="BC215" s="6"/>
+      <c r="BD215" s="24"/>
+      <c r="BE215" s="24"/>
+      <c r="BF215" s="25"/>
     </row>
-    <row r="216" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>2485</v>
       </c>
@@ -42647,8 +43443,11 @@
         <v>7</v>
       </c>
       <c r="BC216" s="6"/>
+      <c r="BD216" s="24"/>
+      <c r="BE216" s="24"/>
+      <c r="BF216" s="25"/>
     </row>
-    <row r="217" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>2495</v>
       </c>
@@ -42765,8 +43564,11 @@
         <v>9</v>
       </c>
       <c r="BC217" s="6"/>
+      <c r="BD217" s="24"/>
+      <c r="BE217" s="24"/>
+      <c r="BF217" s="25"/>
     </row>
-    <row r="218" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
         <v>2505</v>
       </c>
@@ -42883,8 +43685,11 @@
         <v>9</v>
       </c>
       <c r="BC218" s="6"/>
+      <c r="BD218" s="24"/>
+      <c r="BE218" s="24"/>
+      <c r="BF218" s="25"/>
     </row>
-    <row r="219" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>2516</v>
       </c>
@@ -43001,8 +43806,11 @@
         <v>7</v>
       </c>
       <c r="BC219" s="6"/>
+      <c r="BD219" s="24"/>
+      <c r="BE219" s="24"/>
+      <c r="BF219" s="25"/>
     </row>
-    <row r="220" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>2525</v>
       </c>
@@ -43119,8 +43927,11 @@
         <v>9</v>
       </c>
       <c r="BC220" s="6"/>
+      <c r="BD220" s="24"/>
+      <c r="BE220" s="24"/>
+      <c r="BF220" s="25"/>
     </row>
-    <row r="221" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>2537</v>
       </c>
@@ -43239,8 +44050,11 @@
         <v>7</v>
       </c>
       <c r="BC221" s="6"/>
+      <c r="BD221" s="24"/>
+      <c r="BE221" s="24"/>
+      <c r="BF221" s="25"/>
     </row>
-    <row r="222" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>2549</v>
       </c>
@@ -43357,8 +44171,11 @@
         <v>9</v>
       </c>
       <c r="BC222" s="6"/>
+      <c r="BD222" s="24"/>
+      <c r="BE222" s="24"/>
+      <c r="BF222" s="25"/>
     </row>
-    <row r="223" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
         <v>2559</v>
       </c>
@@ -43475,8 +44292,11 @@
         <v>7</v>
       </c>
       <c r="BC223" s="6"/>
+      <c r="BD223" s="24"/>
+      <c r="BE223" s="24"/>
+      <c r="BF223" s="25"/>
     </row>
-    <row r="224" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>2573</v>
       </c>
@@ -43593,8 +44413,11 @@
         <v>7</v>
       </c>
       <c r="BC224" s="6"/>
+      <c r="BD224" s="24"/>
+      <c r="BE224" s="24"/>
+      <c r="BF224" s="25"/>
     </row>
-    <row r="225" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>2583</v>
       </c>
@@ -43711,8 +44534,11 @@
         <v>7</v>
       </c>
       <c r="BC225" s="6"/>
+      <c r="BD225" s="24"/>
+      <c r="BE225" s="24"/>
+      <c r="BF225" s="25"/>
     </row>
-    <row r="226" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>2596</v>
       </c>
@@ -43829,8 +44655,11 @@
         <v>7</v>
       </c>
       <c r="BC226" s="6"/>
+      <c r="BD226" s="24"/>
+      <c r="BE226" s="24"/>
+      <c r="BF226" s="25"/>
     </row>
-    <row r="227" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
         <v>2609</v>
       </c>
@@ -43947,8 +44776,11 @@
         <v>7</v>
       </c>
       <c r="BC227" s="6"/>
+      <c r="BD227" s="24"/>
+      <c r="BE227" s="24"/>
+      <c r="BF227" s="25"/>
     </row>
-    <row r="228" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
         <v>2620</v>
       </c>
@@ -44065,8 +44897,11 @@
         <v>5</v>
       </c>
       <c r="BC228" s="6"/>
+      <c r="BD228" s="24"/>
+      <c r="BE228" s="24"/>
+      <c r="BF228" s="25"/>
     </row>
-    <row r="229" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>2633</v>
       </c>
@@ -44183,8 +45018,11 @@
         <v>7</v>
       </c>
       <c r="BC229" s="6"/>
+      <c r="BD229" s="24"/>
+      <c r="BE229" s="24"/>
+      <c r="BF229" s="25"/>
     </row>
-    <row r="230" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
         <v>2644</v>
       </c>
@@ -44301,8 +45139,11 @@
         <v>7</v>
       </c>
       <c r="BC230" s="6"/>
+      <c r="BD230" s="24"/>
+      <c r="BE230" s="24"/>
+      <c r="BF230" s="25"/>
     </row>
-    <row r="231" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A231" s="8" t="s">
         <v>2654</v>
       </c>
@@ -44419,8 +45260,11 @@
         <v>5</v>
       </c>
       <c r="BC231" s="8"/>
+      <c r="BD231" s="24"/>
+      <c r="BE231" s="24"/>
+      <c r="BF231" s="25"/>
     </row>
-    <row r="232" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="s">
         <v>2665</v>
       </c>
@@ -44537,8 +45381,11 @@
         <v>7</v>
       </c>
       <c r="BC232" s="8"/>
+      <c r="BD232" s="24"/>
+      <c r="BE232" s="24"/>
+      <c r="BF232" s="25"/>
     </row>
-    <row r="233" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
         <v>2675</v>
       </c>
@@ -44655,8 +45502,11 @@
         <v>7</v>
       </c>
       <c r="BC233" s="6"/>
+      <c r="BD233" s="24"/>
+      <c r="BE233" s="24"/>
+      <c r="BF233" s="25"/>
     </row>
-    <row r="234" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
         <v>2689</v>
       </c>
@@ -44773,8 +45623,11 @@
         <v>7</v>
       </c>
       <c r="BC234" s="6"/>
+      <c r="BD234" s="24"/>
+      <c r="BE234" s="24"/>
+      <c r="BF234" s="25"/>
     </row>
-    <row r="235" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A235" s="8" t="s">
         <v>2698</v>
       </c>
@@ -44891,8 +45744,11 @@
         <v>5</v>
       </c>
       <c r="BC235" s="8"/>
+      <c r="BD235" s="24"/>
+      <c r="BE235" s="24"/>
+      <c r="BF235" s="25"/>
     </row>
-    <row r="236" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A236" s="8" t="s">
         <v>2708</v>
       </c>
@@ -45009,8 +45865,11 @@
         <v>5</v>
       </c>
       <c r="BC236" s="8"/>
+      <c r="BD236" s="24"/>
+      <c r="BE236" s="24"/>
+      <c r="BF236" s="25"/>
     </row>
-    <row r="237" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A237" s="8" t="s">
         <v>2719</v>
       </c>
@@ -45127,8 +45986,11 @@
         <v>7</v>
       </c>
       <c r="BC237" s="8"/>
+      <c r="BD237" s="24"/>
+      <c r="BE237" s="24"/>
+      <c r="BF237" s="25"/>
     </row>
-    <row r="238" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A238" s="8" t="s">
         <v>2731</v>
       </c>
@@ -45245,8 +46107,11 @@
         <v>7</v>
       </c>
       <c r="BC238" s="8"/>
+      <c r="BD238" s="24"/>
+      <c r="BE238" s="24"/>
+      <c r="BF238" s="25"/>
     </row>
-    <row r="239" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A239" s="8" t="s">
         <v>2742</v>
       </c>
@@ -45363,8 +46228,11 @@
         <v>5</v>
       </c>
       <c r="BC239" s="8"/>
+      <c r="BD239" s="24"/>
+      <c r="BE239" s="24"/>
+      <c r="BF239" s="25"/>
     </row>
-    <row r="240" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
         <v>2751</v>
       </c>
@@ -45481,8 +46349,11 @@
         <v>7</v>
       </c>
       <c r="BC240" s="6"/>
+      <c r="BD240" s="24"/>
+      <c r="BE240" s="24"/>
+      <c r="BF240" s="25"/>
     </row>
-    <row r="241" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
         <v>2763</v>
       </c>
@@ -45601,8 +46472,11 @@
         <v>7</v>
       </c>
       <c r="BC241" s="6"/>
+      <c r="BD241" s="24"/>
+      <c r="BE241" s="24"/>
+      <c r="BF241" s="25"/>
     </row>
-    <row r="242" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
         <v>2774</v>
       </c>
@@ -45721,8 +46595,11 @@
         <v>7</v>
       </c>
       <c r="BC242" s="6"/>
+      <c r="BD242" s="24"/>
+      <c r="BE242" s="24"/>
+      <c r="BF242" s="25"/>
     </row>
-    <row r="243" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
         <v>2784</v>
       </c>
@@ -45841,8 +46718,11 @@
         <v>7</v>
       </c>
       <c r="BC243" s="6"/>
+      <c r="BD243" s="24"/>
+      <c r="BE243" s="24"/>
+      <c r="BF243" s="25"/>
     </row>
-    <row r="244" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
         <v>2793</v>
       </c>
@@ -45959,8 +46839,11 @@
         <v>7</v>
       </c>
       <c r="BC244" s="6"/>
+      <c r="BD244" s="24"/>
+      <c r="BE244" s="24"/>
+      <c r="BF244" s="25"/>
     </row>
-    <row r="245" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A245" s="8" t="s">
         <v>2804</v>
       </c>
@@ -46077,8 +46960,11 @@
         <v>7</v>
       </c>
       <c r="BC245" s="8"/>
+      <c r="BD245" s="24"/>
+      <c r="BE245" s="24"/>
+      <c r="BF245" s="25"/>
     </row>
-    <row r="246" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A246" s="8" t="s">
         <v>2817</v>
       </c>
@@ -46195,8 +47081,11 @@
         <v>7</v>
       </c>
       <c r="BC246" s="8"/>
+      <c r="BD246" s="24"/>
+      <c r="BE246" s="24"/>
+      <c r="BF246" s="25"/>
     </row>
-    <row r="247" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
         <v>2827</v>
       </c>
@@ -46315,8 +47204,11 @@
         <v>5</v>
       </c>
       <c r="BC247" s="6"/>
+      <c r="BD247" s="24"/>
+      <c r="BE247" s="24"/>
+      <c r="BF247" s="25"/>
     </row>
-    <row r="248" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
         <v>2840</v>
       </c>
@@ -46435,8 +47327,11 @@
         <v>7</v>
       </c>
       <c r="BC248" s="6"/>
+      <c r="BD248" s="24"/>
+      <c r="BE248" s="24"/>
+      <c r="BF248" s="25"/>
     </row>
-    <row r="249" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
         <v>2849</v>
       </c>
@@ -46553,8 +47448,11 @@
         <v>7</v>
       </c>
       <c r="BC249" s="6"/>
+      <c r="BD249" s="24"/>
+      <c r="BE249" s="24"/>
+      <c r="BF249" s="25"/>
     </row>
-    <row r="250" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
         <v>2860</v>
       </c>
@@ -46671,8 +47569,11 @@
         <v>7</v>
       </c>
       <c r="BC250" s="6"/>
+      <c r="BD250" s="24"/>
+      <c r="BE250" s="24"/>
+      <c r="BF250" s="25"/>
     </row>
-    <row r="251" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
         <v>2867</v>
       </c>
@@ -46789,8 +47690,11 @@
         <v>15</v>
       </c>
       <c r="BC251" s="6"/>
+      <c r="BD251" s="24"/>
+      <c r="BE251" s="24"/>
+      <c r="BF251" s="25"/>
     </row>
-    <row r="252" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
         <v>2878</v>
       </c>
@@ -46907,8 +47811,11 @@
         <v>15</v>
       </c>
       <c r="BC252" s="6"/>
+      <c r="BD252" s="24"/>
+      <c r="BE252" s="24"/>
+      <c r="BF252" s="25"/>
     </row>
-    <row r="253" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
         <v>2888</v>
       </c>
@@ -47027,8 +47934,11 @@
         <v>15</v>
       </c>
       <c r="BC253" s="6"/>
+      <c r="BD253" s="24"/>
+      <c r="BE253" s="24"/>
+      <c r="BF253" s="25"/>
     </row>
-    <row r="254" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
         <v>2900</v>
       </c>
@@ -47147,8 +48057,11 @@
         <v>15</v>
       </c>
       <c r="BC254" s="6"/>
+      <c r="BD254" s="24"/>
+      <c r="BE254" s="24"/>
+      <c r="BF254" s="25"/>
     </row>
-    <row r="255" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
         <v>2910</v>
       </c>
@@ -47267,8 +48180,11 @@
         <v>15</v>
       </c>
       <c r="BC255" s="6"/>
+      <c r="BD255" s="24"/>
+      <c r="BE255" s="24"/>
+      <c r="BF255" s="25"/>
     </row>
-    <row r="256" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
         <v>2922</v>
       </c>
@@ -47387,8 +48303,11 @@
         <v>15</v>
       </c>
       <c r="BC256" s="6"/>
+      <c r="BD256" s="24"/>
+      <c r="BE256" s="24"/>
+      <c r="BF256" s="25"/>
     </row>
-    <row r="257" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
         <v>2935</v>
       </c>
@@ -47507,8 +48426,11 @@
         <v>15</v>
       </c>
       <c r="BC257" s="6"/>
+      <c r="BD257" s="24"/>
+      <c r="BE257" s="24"/>
+      <c r="BF257" s="25"/>
     </row>
-    <row r="258" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
         <v>2944</v>
       </c>
@@ -47625,8 +48547,11 @@
         <v>15</v>
       </c>
       <c r="BC258" s="6"/>
+      <c r="BD258" s="24"/>
+      <c r="BE258" s="24"/>
+      <c r="BF258" s="25"/>
     </row>
-    <row r="259" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
         <v>2956</v>
       </c>
@@ -47743,8 +48668,11 @@
         <v>5</v>
       </c>
       <c r="BC259" s="6"/>
+      <c r="BD259" s="24"/>
+      <c r="BE259" s="24"/>
+      <c r="BF259" s="25"/>
     </row>
-    <row r="260" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
         <v>2969</v>
       </c>
@@ -47863,8 +48791,11 @@
         <v>7</v>
       </c>
       <c r="BC260" s="6"/>
+      <c r="BD260" s="24"/>
+      <c r="BE260" s="24"/>
+      <c r="BF260" s="25"/>
     </row>
-    <row r="261" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
         <v>2982</v>
       </c>
@@ -47983,8 +48914,11 @@
         <v>5</v>
       </c>
       <c r="BC261" s="6"/>
+      <c r="BD261" s="24"/>
+      <c r="BE261" s="24"/>
+      <c r="BF261" s="25"/>
     </row>
-    <row r="262" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
         <v>2994</v>
       </c>
@@ -48103,8 +49037,11 @@
         <v>15</v>
       </c>
       <c r="BC262" s="6"/>
+      <c r="BD262" s="24"/>
+      <c r="BE262" s="24"/>
+      <c r="BF262" s="25"/>
     </row>
-    <row r="263" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
         <v>3007</v>
       </c>
@@ -48223,8 +49160,11 @@
         <v>15</v>
       </c>
       <c r="BC263" s="6"/>
+      <c r="BD263" s="24"/>
+      <c r="BE263" s="24"/>
+      <c r="BF263" s="25"/>
     </row>
-    <row r="264" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
         <v>3018</v>
       </c>
@@ -48341,8 +49281,11 @@
         <v>15</v>
       </c>
       <c r="BC264" s="6"/>
+      <c r="BD264" s="24"/>
+      <c r="BE264" s="24"/>
+      <c r="BF264" s="25"/>
     </row>
-    <row r="265" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A265" s="8" t="s">
         <v>3030</v>
       </c>
@@ -48459,8 +49402,11 @@
         <v>7</v>
       </c>
       <c r="BC265" s="8"/>
+      <c r="BD265" s="24"/>
+      <c r="BE265" s="24"/>
+      <c r="BF265" s="25"/>
     </row>
-    <row r="266" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
         <v>3044</v>
       </c>
@@ -48579,8 +49525,11 @@
         <v>7</v>
       </c>
       <c r="BC266" s="6"/>
+      <c r="BD266" s="24"/>
+      <c r="BE266" s="24"/>
+      <c r="BF266" s="25"/>
     </row>
-    <row r="267" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A267" s="6" t="s">
         <v>3057</v>
       </c>
@@ -48697,8 +49646,11 @@
         <v>7</v>
       </c>
       <c r="BC267" s="6"/>
+      <c r="BD267" s="24"/>
+      <c r="BE267" s="24"/>
+      <c r="BF267" s="25"/>
     </row>
-    <row r="268" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
         <v>3070</v>
       </c>
@@ -48815,8 +49767,11 @@
         <v>7</v>
       </c>
       <c r="BC268" s="6"/>
+      <c r="BD268" s="24"/>
+      <c r="BE268" s="24"/>
+      <c r="BF268" s="25"/>
     </row>
-    <row r="269" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A269" s="8" t="s">
         <v>3079</v>
       </c>
@@ -48933,8 +49888,11 @@
         <v>7</v>
       </c>
       <c r="BC269" s="8"/>
+      <c r="BD269" s="24"/>
+      <c r="BE269" s="24"/>
+      <c r="BF269" s="25"/>
     </row>
-    <row r="270" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
         <v>3092</v>
       </c>
@@ -49051,8 +50009,11 @@
         <v>7</v>
       </c>
       <c r="BC270" s="6"/>
+      <c r="BD270" s="24"/>
+      <c r="BE270" s="24"/>
+      <c r="BF270" s="25"/>
     </row>
-    <row r="271" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
         <v>3105</v>
       </c>
@@ -49171,8 +50132,11 @@
         <v>14</v>
       </c>
       <c r="BC271" s="6"/>
+      <c r="BD271" s="24"/>
+      <c r="BE271" s="24"/>
+      <c r="BF271" s="25"/>
     </row>
-    <row r="272" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
         <v>3119</v>
       </c>
@@ -49291,8 +50255,11 @@
         <v>14</v>
       </c>
       <c r="BC272" s="6"/>
+      <c r="BD272" s="24"/>
+      <c r="BE272" s="24"/>
+      <c r="BF272" s="25"/>
     </row>
-    <row r="273" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
         <v>3132</v>
       </c>
@@ -49409,8 +50376,11 @@
         <v>7</v>
       </c>
       <c r="BC273" s="6"/>
+      <c r="BD273" s="24"/>
+      <c r="BE273" s="24"/>
+      <c r="BF273" s="25"/>
     </row>
-    <row r="274" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
         <v>3147</v>
       </c>
@@ -49527,8 +50497,11 @@
         <v>7</v>
       </c>
       <c r="BC274" s="6"/>
+      <c r="BD274" s="24"/>
+      <c r="BE274" s="24"/>
+      <c r="BF274" s="25"/>
     </row>
-    <row r="275" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
         <v>3160</v>
       </c>
@@ -49645,8 +50618,11 @@
         <v>7</v>
       </c>
       <c r="BC275" s="6"/>
+      <c r="BD275" s="24"/>
+      <c r="BE275" s="24"/>
+      <c r="BF275" s="25"/>
     </row>
-    <row r="276" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A276" s="8" t="s">
         <v>3172</v>
       </c>
@@ -49763,8 +50739,11 @@
         <v>7</v>
       </c>
       <c r="BC276" s="8"/>
+      <c r="BD276" s="24"/>
+      <c r="BE276" s="24"/>
+      <c r="BF276" s="25"/>
     </row>
-    <row r="277" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A277" s="8" t="s">
         <v>3185</v>
       </c>
@@ -49881,8 +50860,11 @@
         <v>7</v>
       </c>
       <c r="BC277" s="8"/>
+      <c r="BD277" s="24"/>
+      <c r="BE277" s="24"/>
+      <c r="BF277" s="25"/>
     </row>
-    <row r="278" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
         <v>3197</v>
       </c>
@@ -49999,8 +50981,11 @@
         <v>7</v>
       </c>
       <c r="BC278" s="6"/>
+      <c r="BD278" s="24"/>
+      <c r="BE278" s="24"/>
+      <c r="BF278" s="25"/>
     </row>
-    <row r="279" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A279" s="6" t="s">
         <v>3210</v>
       </c>
@@ -50117,8 +51102,11 @@
         <v>7</v>
       </c>
       <c r="BC279" s="6"/>
+      <c r="BD279" s="24"/>
+      <c r="BE279" s="24"/>
+      <c r="BF279" s="25"/>
     </row>
-    <row r="280" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
         <v>3222</v>
       </c>
@@ -50235,8 +51223,11 @@
         <v>7</v>
       </c>
       <c r="BC280" s="6"/>
+      <c r="BD280" s="24"/>
+      <c r="BE280" s="24"/>
+      <c r="BF280" s="25"/>
     </row>
-    <row r="281" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
         <v>3234</v>
       </c>
@@ -50353,8 +51344,11 @@
         <v>7</v>
       </c>
       <c r="BC281" s="6"/>
+      <c r="BD281" s="24"/>
+      <c r="BE281" s="24"/>
+      <c r="BF281" s="25"/>
     </row>
-    <row r="282" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A282" s="8" t="s">
         <v>3243</v>
       </c>
@@ -50471,8 +51465,11 @@
         <v>7</v>
       </c>
       <c r="BC282" s="8"/>
+      <c r="BD282" s="24"/>
+      <c r="BE282" s="24"/>
+      <c r="BF282" s="25"/>
     </row>
-    <row r="283" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A283" s="6" t="s">
         <v>3254</v>
       </c>
@@ -50591,8 +51588,11 @@
         <v>7</v>
       </c>
       <c r="BC283" s="6"/>
+      <c r="BD283" s="24"/>
+      <c r="BE283" s="24"/>
+      <c r="BF283" s="25"/>
     </row>
-    <row r="284" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A284" s="6" t="s">
         <v>3265</v>
       </c>
@@ -50709,8 +51709,11 @@
         <v>7</v>
       </c>
       <c r="BC284" s="6"/>
+      <c r="BD284" s="24"/>
+      <c r="BE284" s="24"/>
+      <c r="BF284" s="25"/>
     </row>
-    <row r="285" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A285" s="6" t="s">
         <v>3275</v>
       </c>
@@ -50827,8 +51830,11 @@
         <v>15</v>
       </c>
       <c r="BC285" s="6"/>
+      <c r="BD285" s="24"/>
+      <c r="BE285" s="24"/>
+      <c r="BF285" s="25"/>
     </row>
-    <row r="286" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A286" s="6" t="s">
         <v>3286</v>
       </c>
@@ -50945,8 +51951,11 @@
         <v>15</v>
       </c>
       <c r="BC286" s="6"/>
+      <c r="BD286" s="24"/>
+      <c r="BE286" s="24"/>
+      <c r="BF286" s="25"/>
     </row>
-    <row r="287" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
         <v>3296</v>
       </c>
@@ -51063,8 +52072,11 @@
         <v>15</v>
       </c>
       <c r="BC287" s="6"/>
+      <c r="BD287" s="24"/>
+      <c r="BE287" s="24"/>
+      <c r="BF287" s="25"/>
     </row>
-    <row r="288" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A288" s="8" t="s">
         <v>3305</v>
       </c>
@@ -51181,8 +52193,11 @@
         <v>15</v>
       </c>
       <c r="BC288" s="8"/>
+      <c r="BD288" s="24"/>
+      <c r="BE288" s="24"/>
+      <c r="BF288" s="25"/>
     </row>
-    <row r="289" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
         <v>3316</v>
       </c>
@@ -51301,8 +52316,11 @@
         <v>15</v>
       </c>
       <c r="BC289" s="6"/>
+      <c r="BD289" s="24"/>
+      <c r="BE289" s="24"/>
+      <c r="BF289" s="25"/>
     </row>
-    <row r="290" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A290" s="6" t="s">
         <v>3330</v>
       </c>
@@ -51421,8 +52439,11 @@
         <v>15</v>
       </c>
       <c r="BC290" s="6"/>
+      <c r="BD290" s="24"/>
+      <c r="BE290" s="24"/>
+      <c r="BF290" s="25"/>
     </row>
-    <row r="291" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A291" s="6" t="s">
         <v>3344</v>
       </c>
@@ -51541,8 +52562,11 @@
         <v>15</v>
       </c>
       <c r="BC291" s="6"/>
+      <c r="BD291" s="24"/>
+      <c r="BE291" s="24"/>
+      <c r="BF291" s="25"/>
     </row>
-    <row r="292" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A292" s="6" t="s">
         <v>3354</v>
       </c>
@@ -51659,8 +52683,11 @@
         <v>15</v>
       </c>
       <c r="BC292" s="6"/>
+      <c r="BD292" s="24"/>
+      <c r="BE292" s="24"/>
+      <c r="BF292" s="25"/>
     </row>
-    <row r="293" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
         <v>3365</v>
       </c>
@@ -51777,8 +52804,11 @@
         <v>15</v>
       </c>
       <c r="BC293" s="6"/>
+      <c r="BD293" s="24"/>
+      <c r="BE293" s="24"/>
+      <c r="BF293" s="25"/>
     </row>
-    <row r="294" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
         <v>3377</v>
       </c>
@@ -51897,8 +52927,11 @@
         <v>7</v>
       </c>
       <c r="BC294" s="6"/>
+      <c r="BD294" s="24"/>
+      <c r="BE294" s="24"/>
+      <c r="BF294" s="25"/>
     </row>
-    <row r="295" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A295" s="6" t="s">
         <v>3388</v>
       </c>
@@ -52017,8 +53050,11 @@
         <v>7</v>
       </c>
       <c r="BC295" s="6"/>
+      <c r="BD295" s="24"/>
+      <c r="BE295" s="24"/>
+      <c r="BF295" s="25"/>
     </row>
-    <row r="296" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A296" s="6" t="s">
         <v>3401</v>
       </c>
@@ -52135,8 +53171,11 @@
         <v>15</v>
       </c>
       <c r="BC296" s="6"/>
+      <c r="BD296" s="24"/>
+      <c r="BE296" s="24"/>
+      <c r="BF296" s="25"/>
     </row>
-    <row r="297" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A297" s="6" t="s">
         <v>3414</v>
       </c>
@@ -52253,8 +53292,11 @@
         <v>15</v>
       </c>
       <c r="BC297" s="6"/>
+      <c r="BD297" s="24"/>
+      <c r="BE297" s="24"/>
+      <c r="BF297" s="25"/>
     </row>
-    <row r="298" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A298" s="6" t="s">
         <v>3428</v>
       </c>
@@ -52371,8 +53413,11 @@
         <v>15</v>
       </c>
       <c r="BC298" s="6"/>
+      <c r="BD298" s="24"/>
+      <c r="BE298" s="24"/>
+      <c r="BF298" s="25"/>
     </row>
-    <row r="299" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A299" s="6" t="s">
         <v>3440</v>
       </c>
@@ -52491,8 +53536,11 @@
         <v>12</v>
       </c>
       <c r="BC299" s="6"/>
+      <c r="BD299" s="24"/>
+      <c r="BE299" s="24"/>
+      <c r="BF299" s="25"/>
     </row>
-    <row r="300" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="s">
         <v>3453</v>
       </c>
@@ -52611,8 +53659,11 @@
         <v>12</v>
       </c>
       <c r="BC300" s="6"/>
+      <c r="BD300" s="24"/>
+      <c r="BE300" s="24"/>
+      <c r="BF300" s="25"/>
     </row>
-    <row r="301" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A301" s="6" t="s">
         <v>3466</v>
       </c>
@@ -52731,8 +53782,11 @@
         <v>12</v>
       </c>
       <c r="BC301" s="6"/>
+      <c r="BD301" s="24"/>
+      <c r="BE301" s="24"/>
+      <c r="BF301" s="25"/>
     </row>
-    <row r="302" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A302" s="11" t="s">
         <v>3478</v>
       </c>
@@ -52851,8 +53905,11 @@
         <v>12</v>
       </c>
       <c r="BC302" s="11"/>
+      <c r="BD302" s="24"/>
+      <c r="BE302" s="24"/>
+      <c r="BF302" s="25"/>
     </row>
-    <row r="303" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
         <v>3489</v>
       </c>
@@ -52971,8 +54028,11 @@
         <v>12</v>
       </c>
       <c r="BC303" s="6"/>
+      <c r="BD303" s="24"/>
+      <c r="BE303" s="24"/>
+      <c r="BF303" s="25"/>
     </row>
-    <row r="304" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
         <v>3502</v>
       </c>
@@ -53091,8 +54151,11 @@
         <v>12</v>
       </c>
       <c r="BC304" s="6"/>
+      <c r="BD304" s="24"/>
+      <c r="BE304" s="24"/>
+      <c r="BF304" s="25"/>
     </row>
-    <row r="305" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
         <v>3515</v>
       </c>
@@ -53211,8 +54274,11 @@
         <v>12</v>
       </c>
       <c r="BC305" s="6"/>
+      <c r="BD305" s="24"/>
+      <c r="BE305" s="24"/>
+      <c r="BF305" s="25"/>
     </row>
-    <row r="306" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A306" s="6" t="s">
         <v>3528</v>
       </c>
@@ -53331,8 +54397,11 @@
         <v>12</v>
       </c>
       <c r="BC306" s="6"/>
+      <c r="BD306" s="24"/>
+      <c r="BE306" s="24"/>
+      <c r="BF306" s="25"/>
     </row>
-    <row r="307" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
         <v>3540</v>
       </c>
@@ -53451,8 +54520,11 @@
         <v>12</v>
       </c>
       <c r="BC307" s="6"/>
+      <c r="BD307" s="24"/>
+      <c r="BE307" s="24"/>
+      <c r="BF307" s="25"/>
     </row>
-    <row r="308" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A308" s="6" t="s">
         <v>3552</v>
       </c>
@@ -53569,8 +54641,11 @@
         <v>12</v>
       </c>
       <c r="BC308" s="6"/>
+      <c r="BD308" s="24"/>
+      <c r="BE308" s="24"/>
+      <c r="BF308" s="25"/>
     </row>
-    <row r="309" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A309" s="6" t="s">
         <v>3563</v>
       </c>
@@ -53687,8 +54762,11 @@
         <v>15</v>
       </c>
       <c r="BC309" s="6"/>
+      <c r="BD309" s="24"/>
+      <c r="BE309" s="24"/>
+      <c r="BF309" s="25"/>
     </row>
-    <row r="310" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
         <v>3575</v>
       </c>
@@ -53807,8 +54885,11 @@
         <v>12</v>
       </c>
       <c r="BC310" s="6"/>
+      <c r="BD310" s="24"/>
+      <c r="BE310" s="24"/>
+      <c r="BF310" s="25"/>
     </row>
-    <row r="311" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
         <v>3589</v>
       </c>
@@ -53925,8 +55006,11 @@
         <v>12</v>
       </c>
       <c r="BC311" s="6"/>
+      <c r="BD311" s="24"/>
+      <c r="BE311" s="24"/>
+      <c r="BF311" s="25"/>
     </row>
-    <row r="312" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A312" s="6" t="s">
         <v>3603</v>
       </c>
@@ -54045,8 +55129,11 @@
         <v>12</v>
       </c>
       <c r="BC312" s="6"/>
+      <c r="BD312" s="24"/>
+      <c r="BE312" s="24"/>
+      <c r="BF312" s="25"/>
     </row>
-    <row r="313" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A313" s="6" t="s">
         <v>3613</v>
       </c>
@@ -54165,8 +55252,11 @@
         <v>12</v>
       </c>
       <c r="BC313" s="6"/>
+      <c r="BD313" s="24"/>
+      <c r="BE313" s="24"/>
+      <c r="BF313" s="25"/>
     </row>
-    <row r="314" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A314" s="6" t="s">
         <v>3624</v>
       </c>
@@ -54285,8 +55375,11 @@
         <v>12</v>
       </c>
       <c r="BC314" s="6"/>
+      <c r="BD314" s="24"/>
+      <c r="BE314" s="24"/>
+      <c r="BF314" s="25"/>
     </row>
-    <row r="315" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A315" s="6" t="s">
         <v>3635</v>
       </c>
@@ -54405,8 +55498,11 @@
         <v>12</v>
       </c>
       <c r="BC315" s="6"/>
+      <c r="BD315" s="24"/>
+      <c r="BE315" s="24"/>
+      <c r="BF315" s="25"/>
     </row>
-    <row r="316" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
         <v>3646</v>
       </c>
@@ -54525,8 +55621,11 @@
         <v>12</v>
       </c>
       <c r="BC316" s="6"/>
+      <c r="BD316" s="24"/>
+      <c r="BE316" s="24"/>
+      <c r="BF316" s="25"/>
     </row>
-    <row r="317" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A317" s="6" t="s">
         <v>3657</v>
       </c>
@@ -54643,8 +55742,11 @@
         <v>12</v>
       </c>
       <c r="BC317" s="6"/>
+      <c r="BD317" s="24"/>
+      <c r="BE317" s="24"/>
+      <c r="BF317" s="25"/>
     </row>
-    <row r="318" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A318" s="6" t="s">
         <v>3668</v>
       </c>
@@ -54763,8 +55865,11 @@
         <v>12</v>
       </c>
       <c r="BC318" s="6"/>
+      <c r="BD318" s="24"/>
+      <c r="BE318" s="24"/>
+      <c r="BF318" s="25"/>
     </row>
-    <row r="319" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A319" s="6" t="s">
         <v>3682</v>
       </c>
@@ -54883,8 +55988,11 @@
         <v>12</v>
       </c>
       <c r="BC319" s="6"/>
+      <c r="BD319" s="24"/>
+      <c r="BE319" s="24"/>
+      <c r="BF319" s="25"/>
     </row>
-    <row r="320" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
         <v>3694</v>
       </c>
@@ -55001,8 +56109,11 @@
         <v>12</v>
       </c>
       <c r="BC320" s="6"/>
+      <c r="BD320" s="24"/>
+      <c r="BE320" s="24"/>
+      <c r="BF320" s="25"/>
     </row>
-    <row r="321" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
         <v>3703</v>
       </c>
@@ -55119,8 +56230,11 @@
         <v>14</v>
       </c>
       <c r="BC321" s="6"/>
+      <c r="BD321" s="24"/>
+      <c r="BE321" s="24"/>
+      <c r="BF321" s="25"/>
     </row>
-    <row r="322" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
         <v>3715</v>
       </c>
@@ -55239,8 +56353,11 @@
         <v>14</v>
       </c>
       <c r="BC322" s="6"/>
+      <c r="BD322" s="24"/>
+      <c r="BE322" s="24"/>
+      <c r="BF322" s="25"/>
     </row>
-    <row r="323" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A323" s="6" t="s">
         <v>3729</v>
       </c>
@@ -55359,8 +56476,11 @@
         <v>14</v>
       </c>
       <c r="BC323" s="6"/>
+      <c r="BD323" s="24"/>
+      <c r="BE323" s="24"/>
+      <c r="BF323" s="25"/>
     </row>
-    <row r="324" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A324" s="6" t="s">
         <v>3740</v>
       </c>
@@ -55479,8 +56599,11 @@
         <v>12</v>
       </c>
       <c r="BC324" s="6"/>
+      <c r="BD324" s="24"/>
+      <c r="BE324" s="24"/>
+      <c r="BF324" s="25"/>
     </row>
-    <row r="325" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A325" s="6" t="s">
         <v>3755</v>
       </c>
@@ -55599,8 +56722,11 @@
         <v>12</v>
       </c>
       <c r="BC325" s="6"/>
+      <c r="BD325" s="24"/>
+      <c r="BE325" s="24"/>
+      <c r="BF325" s="25"/>
     </row>
-    <row r="326" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
         <v>3767</v>
       </c>
@@ -55719,8 +56845,11 @@
         <v>12</v>
       </c>
       <c r="BC326" s="6"/>
+      <c r="BD326" s="24"/>
+      <c r="BE326" s="24"/>
+      <c r="BF326" s="25"/>
     </row>
-    <row r="327" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A327" s="6" t="s">
         <v>3779</v>
       </c>
@@ -55839,8 +56968,11 @@
         <v>12</v>
       </c>
       <c r="BC327" s="6"/>
+      <c r="BD327" s="24"/>
+      <c r="BE327" s="24"/>
+      <c r="BF327" s="25"/>
     </row>
-    <row r="328" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A328" s="6" t="s">
         <v>3790</v>
       </c>
@@ -55959,8 +57091,11 @@
         <v>12</v>
       </c>
       <c r="BC328" s="6"/>
+      <c r="BD328" s="24"/>
+      <c r="BE328" s="24"/>
+      <c r="BF328" s="25"/>
     </row>
-    <row r="329" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A329" s="6" t="s">
         <v>3799</v>
       </c>
@@ -56079,8 +57214,11 @@
         <v>12</v>
       </c>
       <c r="BC329" s="6"/>
+      <c r="BD329" s="24"/>
+      <c r="BE329" s="24"/>
+      <c r="BF329" s="25"/>
     </row>
-    <row r="330" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A330" s="6" t="s">
         <v>3810</v>
       </c>
@@ -56199,8 +57337,11 @@
         <v>12</v>
       </c>
       <c r="BC330" s="6"/>
+      <c r="BD330" s="24"/>
+      <c r="BE330" s="24"/>
+      <c r="BF330" s="25"/>
     </row>
-    <row r="331" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A331" s="8" t="s">
         <v>3822</v>
       </c>
@@ -56317,8 +57458,11 @@
         <v>12</v>
       </c>
       <c r="BC331" s="8"/>
+      <c r="BD331" s="24"/>
+      <c r="BE331" s="24"/>
+      <c r="BF331" s="25"/>
     </row>
-    <row r="332" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A332" s="8" t="s">
         <v>3834</v>
       </c>
@@ -56435,8 +57579,11 @@
         <v>12</v>
       </c>
       <c r="BC332" s="8"/>
+      <c r="BD332" s="24"/>
+      <c r="BE332" s="24"/>
+      <c r="BF332" s="25"/>
     </row>
-    <row r="333" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A333" s="8" t="s">
         <v>3845</v>
       </c>
@@ -56553,8 +57700,11 @@
         <v>12</v>
       </c>
       <c r="BC333" s="8"/>
+      <c r="BD333" s="24"/>
+      <c r="BE333" s="24"/>
+      <c r="BF333" s="25"/>
     </row>
-    <row r="334" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A334" s="6" t="s">
         <v>3857</v>
       </c>
@@ -56673,8 +57823,11 @@
         <v>12</v>
       </c>
       <c r="BC334" s="6"/>
+      <c r="BD334" s="24"/>
+      <c r="BE334" s="24"/>
+      <c r="BF334" s="25"/>
     </row>
-    <row r="335" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A335" s="6" t="s">
         <v>3871</v>
       </c>
@@ -56793,8 +57946,11 @@
         <v>12</v>
       </c>
       <c r="BC335" s="6"/>
+      <c r="BD335" s="24"/>
+      <c r="BE335" s="24"/>
+      <c r="BF335" s="25"/>
     </row>
-    <row r="336" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A336" s="6" t="s">
         <v>3882</v>
       </c>
@@ -56913,8 +58069,11 @@
         <v>12</v>
       </c>
       <c r="BC336" s="6"/>
+      <c r="BD336" s="24"/>
+      <c r="BE336" s="24"/>
+      <c r="BF336" s="25"/>
     </row>
-    <row r="337" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A337" s="6" t="s">
         <v>3892</v>
       </c>
@@ -57033,8 +58192,11 @@
         <v>12</v>
       </c>
       <c r="BC337" s="6"/>
+      <c r="BD337" s="24"/>
+      <c r="BE337" s="24"/>
+      <c r="BF337" s="25"/>
     </row>
-    <row r="338" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A338" s="6" t="s">
         <v>3902</v>
       </c>
@@ -57153,8 +58315,11 @@
         <v>12</v>
       </c>
       <c r="BC338" s="6"/>
+      <c r="BD338" s="24"/>
+      <c r="BE338" s="24"/>
+      <c r="BF338" s="25"/>
     </row>
-    <row r="339" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A339" s="8" t="s">
         <v>3913</v>
       </c>
@@ -57271,8 +58436,11 @@
         <v>12</v>
       </c>
       <c r="BC339" s="8"/>
+      <c r="BD339" s="24"/>
+      <c r="BE339" s="24"/>
+      <c r="BF339" s="25"/>
     </row>
-    <row r="340" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A340" s="8" t="s">
         <v>3925</v>
       </c>
@@ -57389,8 +58557,11 @@
         <v>12</v>
       </c>
       <c r="BC340" s="8"/>
+      <c r="BD340" s="24"/>
+      <c r="BE340" s="24"/>
+      <c r="BF340" s="25"/>
     </row>
-    <row r="341" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A341" s="8" t="s">
         <v>3936</v>
       </c>
@@ -57507,8 +58678,11 @@
         <v>12</v>
       </c>
       <c r="BC341" s="8"/>
+      <c r="BD341" s="24"/>
+      <c r="BE341" s="24"/>
+      <c r="BF341" s="25"/>
     </row>
-    <row r="342" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A342" s="6" t="s">
         <v>3946</v>
       </c>
@@ -57627,8 +58801,11 @@
         <v>12</v>
       </c>
       <c r="BC342" s="6"/>
+      <c r="BD342" s="24"/>
+      <c r="BE342" s="24"/>
+      <c r="BF342" s="25"/>
     </row>
-    <row r="343" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A343" s="6" t="s">
         <v>3958</v>
       </c>
@@ -57745,8 +58922,11 @@
         <v>12</v>
       </c>
       <c r="BC343" s="6"/>
+      <c r="BD343" s="24"/>
+      <c r="BE343" s="24"/>
+      <c r="BF343" s="25"/>
     </row>
-    <row r="344" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A344" s="8" t="s">
         <v>3971</v>
       </c>
@@ -57863,8 +59043,11 @@
         <v>12</v>
       </c>
       <c r="BC344" s="8"/>
+      <c r="BD344" s="24"/>
+      <c r="BE344" s="24"/>
+      <c r="BF344" s="25"/>
     </row>
-    <row r="345" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A345" s="8" t="s">
         <v>3983</v>
       </c>
@@ -57981,8 +59164,11 @@
         <v>12</v>
       </c>
       <c r="BC345" s="8"/>
+      <c r="BD345" s="24"/>
+      <c r="BE345" s="24"/>
+      <c r="BF345" s="25"/>
     </row>
-    <row r="346" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A346" s="11" t="s">
         <v>3994</v>
       </c>
@@ -58101,8 +59287,11 @@
         <v>12</v>
       </c>
       <c r="BC346" s="11"/>
+      <c r="BD346" s="24"/>
+      <c r="BE346" s="24"/>
+      <c r="BF346" s="25"/>
     </row>
-    <row r="347" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A347" s="6" t="s">
         <v>4008</v>
       </c>
@@ -58221,8 +59410,11 @@
         <v>12</v>
       </c>
       <c r="BC347" s="6"/>
+      <c r="BD347" s="24"/>
+      <c r="BE347" s="24"/>
+      <c r="BF347" s="25"/>
     </row>
-    <row r="348" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A348" s="6" t="s">
         <v>4019</v>
       </c>
@@ -58341,8 +59533,11 @@
         <v>12</v>
       </c>
       <c r="BC348" s="6"/>
+      <c r="BD348" s="24"/>
+      <c r="BE348" s="24"/>
+      <c r="BF348" s="25"/>
     </row>
-    <row r="349" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A349" s="6" t="s">
         <v>4032</v>
       </c>
@@ -58461,8 +59656,11 @@
         <v>12</v>
       </c>
       <c r="BC349" s="6"/>
+      <c r="BD349" s="24"/>
+      <c r="BE349" s="24"/>
+      <c r="BF349" s="25"/>
     </row>
-    <row r="350" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A350" s="6" t="s">
         <v>4043</v>
       </c>
@@ -58581,8 +59779,11 @@
         <v>12</v>
       </c>
       <c r="BC350" s="6"/>
+      <c r="BD350" s="24"/>
+      <c r="BE350" s="24"/>
+      <c r="BF350" s="25"/>
     </row>
-    <row r="351" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A351" s="8" t="s">
         <v>4053</v>
       </c>
@@ -58699,8 +59900,11 @@
         <v>12</v>
       </c>
       <c r="BC351" s="8"/>
+      <c r="BD351" s="24"/>
+      <c r="BE351" s="24"/>
+      <c r="BF351" s="25"/>
     </row>
-    <row r="352" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A352" s="6" t="s">
         <v>4064</v>
       </c>
@@ -58817,8 +60021,11 @@
         <v>14</v>
       </c>
       <c r="BC352" s="6"/>
+      <c r="BD352" s="24"/>
+      <c r="BE352" s="24"/>
+      <c r="BF352" s="25"/>
     </row>
-    <row r="353" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A353" s="6" t="s">
         <v>4079</v>
       </c>
@@ -58935,8 +60142,11 @@
         <v>15</v>
       </c>
       <c r="BC353" s="6"/>
+      <c r="BD353" s="24"/>
+      <c r="BE353" s="24"/>
+      <c r="BF353" s="25"/>
     </row>
-    <row r="354" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A354" s="6" t="s">
         <v>4091</v>
       </c>
@@ -59053,8 +60263,11 @@
         <v>14</v>
       </c>
       <c r="BC354" s="6"/>
+      <c r="BD354" s="24"/>
+      <c r="BE354" s="24"/>
+      <c r="BF354" s="25"/>
     </row>
-    <row r="355" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A355" s="6" t="s">
         <v>4101</v>
       </c>
@@ -59171,8 +60384,11 @@
         <v>14</v>
       </c>
       <c r="BC355" s="6"/>
+      <c r="BD355" s="24"/>
+      <c r="BE355" s="24"/>
+      <c r="BF355" s="25"/>
     </row>
-    <row r="356" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A356" s="8" t="s">
         <v>4110</v>
       </c>
@@ -59289,8 +60505,11 @@
         <v>12</v>
       </c>
       <c r="BC356" s="8"/>
+      <c r="BD356" s="24"/>
+      <c r="BE356" s="24"/>
+      <c r="BF356" s="25"/>
     </row>
-    <row r="357" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A357" s="8" t="s">
         <v>4121</v>
       </c>
@@ -59407,8 +60626,11 @@
         <v>14</v>
       </c>
       <c r="BC357" s="8"/>
+      <c r="BD357" s="24"/>
+      <c r="BE357" s="24"/>
+      <c r="BF357" s="25"/>
     </row>
-    <row r="358" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A358" s="6" t="s">
         <v>4130</v>
       </c>
@@ -59527,8 +60749,11 @@
         <v>12</v>
       </c>
       <c r="BC358" s="6"/>
+      <c r="BD358" s="24"/>
+      <c r="BE358" s="24"/>
+      <c r="BF358" s="25"/>
     </row>
-    <row r="359" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A359" s="6" t="s">
         <v>4143</v>
       </c>
@@ -59645,8 +60870,11 @@
         <v>11</v>
       </c>
       <c r="BC359" s="6"/>
+      <c r="BD359" s="24"/>
+      <c r="BE359" s="24"/>
+      <c r="BF359" s="25"/>
     </row>
-    <row r="360" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A360" s="6" t="s">
         <v>4155</v>
       </c>
@@ -59763,8 +60991,11 @@
         <v>12</v>
       </c>
       <c r="BC360" s="6"/>
+      <c r="BD360" s="24"/>
+      <c r="BE360" s="24"/>
+      <c r="BF360" s="25"/>
     </row>
-    <row r="361" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A361" s="8" t="s">
         <v>4165</v>
       </c>
@@ -59881,8 +61112,11 @@
         <v>12</v>
       </c>
       <c r="BC361" s="8"/>
+      <c r="BD361" s="24"/>
+      <c r="BE361" s="24"/>
+      <c r="BF361" s="25"/>
     </row>
-    <row r="362" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A362" s="8" t="s">
         <v>4178</v>
       </c>
@@ -59999,8 +61233,11 @@
         <v>14</v>
       </c>
       <c r="BC362" s="8"/>
+      <c r="BD362" s="24"/>
+      <c r="BE362" s="24"/>
+      <c r="BF362" s="25"/>
     </row>
-    <row r="363" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A363" s="6" t="s">
         <v>4192</v>
       </c>
@@ -60117,8 +61354,11 @@
         <v>12</v>
       </c>
       <c r="BC363" s="6"/>
+      <c r="BD363" s="24"/>
+      <c r="BE363" s="24"/>
+      <c r="BF363" s="25"/>
     </row>
-    <row r="364" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A364" s="6" t="s">
         <v>4204</v>
       </c>
@@ -60235,8 +61475,11 @@
         <v>12</v>
       </c>
       <c r="BC364" s="6"/>
+      <c r="BD364" s="24"/>
+      <c r="BE364" s="24"/>
+      <c r="BF364" s="25"/>
     </row>
-    <row r="365" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A365" s="6" t="s">
         <v>4216</v>
       </c>
@@ -60353,8 +61596,11 @@
         <v>12</v>
       </c>
       <c r="BC365" s="6"/>
+      <c r="BD365" s="24"/>
+      <c r="BE365" s="24"/>
+      <c r="BF365" s="25"/>
     </row>
-    <row r="366" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A366" s="6" t="s">
         <v>4226</v>
       </c>
@@ -60471,8 +61717,11 @@
         <v>12</v>
       </c>
       <c r="BC366" s="6"/>
+      <c r="BD366" s="24"/>
+      <c r="BE366" s="24"/>
+      <c r="BF366" s="25"/>
     </row>
-    <row r="367" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A367" s="6" t="s">
         <v>4235</v>
       </c>
@@ -60589,8 +61838,11 @@
         <v>12</v>
       </c>
       <c r="BC367" s="6"/>
+      <c r="BD367" s="24"/>
+      <c r="BE367" s="24"/>
+      <c r="BF367" s="25"/>
     </row>
-    <row r="368" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A368" s="6" t="s">
         <v>4248</v>
       </c>
@@ -60707,8 +61959,11 @@
         <v>12</v>
       </c>
       <c r="BC368" s="6"/>
+      <c r="BD368" s="24"/>
+      <c r="BE368" s="24"/>
+      <c r="BF368" s="25"/>
     </row>
-    <row r="369" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A369" s="8" t="s">
         <v>4260</v>
       </c>
@@ -60825,8 +62080,11 @@
         <v>12</v>
       </c>
       <c r="BC369" s="8"/>
+      <c r="BD369" s="24"/>
+      <c r="BE369" s="24"/>
+      <c r="BF369" s="25"/>
     </row>
-    <row r="370" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A370" s="8" t="s">
         <v>4272</v>
       </c>
@@ -60943,8 +62201,11 @@
         <v>12</v>
       </c>
       <c r="BC370" s="8"/>
+      <c r="BD370" s="24"/>
+      <c r="BE370" s="24"/>
+      <c r="BF370" s="25"/>
     </row>
-    <row r="371" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A371" s="8" t="s">
         <v>4284</v>
       </c>
@@ -61061,8 +62322,11 @@
         <v>12</v>
       </c>
       <c r="BC371" s="8"/>
+      <c r="BD371" s="24"/>
+      <c r="BE371" s="24"/>
+      <c r="BF371" s="25"/>
     </row>
-    <row r="372" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A372" s="6" t="s">
         <v>4295</v>
       </c>
@@ -61179,8 +62443,11 @@
         <v>12</v>
       </c>
       <c r="BC372" s="6"/>
+      <c r="BD372" s="24"/>
+      <c r="BE372" s="24"/>
+      <c r="BF372" s="25"/>
     </row>
-    <row r="373" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A373" s="6" t="s">
         <v>4310</v>
       </c>
@@ -61297,8 +62564,11 @@
         <v>12</v>
       </c>
       <c r="BC373" s="6"/>
+      <c r="BD373" s="24"/>
+      <c r="BE373" s="24"/>
+      <c r="BF373" s="25"/>
     </row>
-    <row r="374" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A374" s="6" t="s">
         <v>4322</v>
       </c>
@@ -61415,8 +62685,11 @@
         <v>11</v>
       </c>
       <c r="BC374" s="6"/>
+      <c r="BD374" s="24"/>
+      <c r="BE374" s="24"/>
+      <c r="BF374" s="25"/>
     </row>
-    <row r="375" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A375" s="6" t="s">
         <v>4333</v>
       </c>
@@ -61535,8 +62808,11 @@
         <v>11</v>
       </c>
       <c r="BC375" s="6"/>
+      <c r="BD375" s="24"/>
+      <c r="BE375" s="24"/>
+      <c r="BF375" s="25"/>
     </row>
-    <row r="376" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A376" s="6" t="s">
         <v>4345</v>
       </c>
@@ -61655,8 +62931,11 @@
         <v>12</v>
       </c>
       <c r="BC376" s="6"/>
+      <c r="BD376" s="24"/>
+      <c r="BE376" s="24"/>
+      <c r="BF376" s="25"/>
     </row>
-    <row r="377" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A377" s="6" t="s">
         <v>4355</v>
       </c>
@@ -61773,8 +63052,11 @@
         <v>12</v>
       </c>
       <c r="BC377" s="6"/>
+      <c r="BD377" s="24"/>
+      <c r="BE377" s="24"/>
+      <c r="BF377" s="25"/>
     </row>
-    <row r="378" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A378" s="6" t="s">
         <v>4368</v>
       </c>
@@ -61891,8 +63173,11 @@
         <v>12</v>
       </c>
       <c r="BC378" s="6"/>
+      <c r="BD378" s="24"/>
+      <c r="BE378" s="24"/>
+      <c r="BF378" s="25"/>
     </row>
-    <row r="379" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A379" s="6" t="s">
         <v>4380</v>
       </c>
@@ -62011,8 +63296,11 @@
         <v>12</v>
       </c>
       <c r="BC379" s="6"/>
+      <c r="BD379" s="24"/>
+      <c r="BE379" s="24"/>
+      <c r="BF379" s="25"/>
     </row>
-    <row r="380" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A380" s="6" t="s">
         <v>4391</v>
       </c>
@@ -62131,8 +63419,11 @@
         <v>12</v>
       </c>
       <c r="BC380" s="6"/>
+      <c r="BD380" s="24"/>
+      <c r="BE380" s="24"/>
+      <c r="BF380" s="25"/>
     </row>
-    <row r="381" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A381" s="8" t="s">
         <v>4401</v>
       </c>
@@ -62249,8 +63540,11 @@
         <v>12</v>
       </c>
       <c r="BC381" s="8"/>
+      <c r="BD381" s="24"/>
+      <c r="BE381" s="24"/>
+      <c r="BF381" s="25"/>
     </row>
-    <row r="382" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A382" s="8" t="s">
         <v>4413</v>
       </c>
@@ -62367,8 +63661,11 @@
         <v>12</v>
       </c>
       <c r="BC382" s="8"/>
+      <c r="BD382" s="24"/>
+      <c r="BE382" s="24"/>
+      <c r="BF382" s="25"/>
     </row>
-    <row r="383" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A383" s="8" t="s">
         <v>4424</v>
       </c>
@@ -62485,8 +63782,11 @@
         <v>11</v>
       </c>
       <c r="BC383" s="8"/>
+      <c r="BD383" s="24"/>
+      <c r="BE383" s="24"/>
+      <c r="BF383" s="25"/>
     </row>
-    <row r="384" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A384" s="6" t="s">
         <v>4435</v>
       </c>
@@ -62605,8 +63905,11 @@
         <v>12</v>
       </c>
       <c r="BC384" s="6"/>
+      <c r="BD384" s="24"/>
+      <c r="BE384" s="24"/>
+      <c r="BF384" s="25"/>
     </row>
-    <row r="385" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A385" s="6" t="s">
         <v>4448</v>
       </c>
@@ -62725,8 +64028,11 @@
         <v>12</v>
       </c>
       <c r="BC385" s="6"/>
+      <c r="BD385" s="24"/>
+      <c r="BE385" s="24"/>
+      <c r="BF385" s="25"/>
     </row>
-    <row r="386" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A386" s="6" t="s">
         <v>4457</v>
       </c>
@@ -62845,8 +64151,11 @@
         <v>12</v>
       </c>
       <c r="BC386" s="6"/>
+      <c r="BD386" s="24"/>
+      <c r="BE386" s="24"/>
+      <c r="BF386" s="25"/>
     </row>
-    <row r="387" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A387" s="6" t="s">
         <v>4469</v>
       </c>
@@ -62965,8 +64274,11 @@
         <v>12</v>
       </c>
       <c r="BC387" s="6"/>
+      <c r="BD387" s="24"/>
+      <c r="BE387" s="24"/>
+      <c r="BF387" s="25"/>
     </row>
-    <row r="388" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A388" s="6" t="s">
         <v>4480</v>
       </c>
@@ -63085,8 +64397,11 @@
         <v>12</v>
       </c>
       <c r="BC388" s="6"/>
+      <c r="BD388" s="24"/>
+      <c r="BE388" s="24"/>
+      <c r="BF388" s="25"/>
     </row>
-    <row r="389" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A389" s="6" t="s">
         <v>4483</v>
       </c>
@@ -63203,8 +64518,11 @@
         <v>12</v>
       </c>
       <c r="BC389" s="6"/>
+      <c r="BD389" s="24"/>
+      <c r="BE389" s="24"/>
+      <c r="BF389" s="25"/>
     </row>
-    <row r="390" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A390" s="6" t="s">
         <v>4486</v>
       </c>
@@ -63323,8 +64641,11 @@
         <v>12</v>
       </c>
       <c r="BC390" s="6"/>
+      <c r="BD390" s="24"/>
+      <c r="BE390" s="24"/>
+      <c r="BF390" s="25"/>
     </row>
-    <row r="391" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A391" s="6" t="s">
         <v>4488</v>
       </c>
@@ -63443,8 +64764,11 @@
         <v>6</v>
       </c>
       <c r="BC391" s="6"/>
+      <c r="BD391" s="24"/>
+      <c r="BE391" s="24"/>
+      <c r="BF391" s="25"/>
     </row>
-    <row r="392" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A392" s="6" t="s">
         <v>4490</v>
       </c>
@@ -63563,8 +64887,11 @@
         <v>11</v>
       </c>
       <c r="BC392" s="6"/>
+      <c r="BD392" s="24"/>
+      <c r="BE392" s="24"/>
+      <c r="BF392" s="25"/>
     </row>
-    <row r="393" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A393" s="6" t="s">
         <v>4492</v>
       </c>
@@ -63683,8 +65010,11 @@
         <v>12</v>
       </c>
       <c r="BC393" s="6"/>
+      <c r="BD393" s="24"/>
+      <c r="BE393" s="24"/>
+      <c r="BF393" s="25"/>
     </row>
-    <row r="394" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A394" s="6" t="s">
         <v>4494</v>
       </c>
@@ -63803,8 +65133,11 @@
         <v>12</v>
       </c>
       <c r="BC394" s="6"/>
+      <c r="BD394" s="24"/>
+      <c r="BE394" s="24"/>
+      <c r="BF394" s="25"/>
     </row>
-    <row r="395" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A395" s="6" t="s">
         <v>4496</v>
       </c>
@@ -63923,8 +65256,11 @@
         <v>12</v>
       </c>
       <c r="BC395" s="6"/>
+      <c r="BD395" s="24"/>
+      <c r="BE395" s="24"/>
+      <c r="BF395" s="25"/>
     </row>
-    <row r="396" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A396" s="6" t="s">
         <v>4497</v>
       </c>
@@ -64043,8 +65379,11 @@
         <v>12</v>
       </c>
       <c r="BC396" s="6"/>
+      <c r="BD396" s="24"/>
+      <c r="BE396" s="24"/>
+      <c r="BF396" s="25"/>
     </row>
-    <row r="397" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A397" s="6" t="s">
         <v>4498</v>
       </c>
@@ -64163,8 +65502,11 @@
         <v>12</v>
       </c>
       <c r="BC397" s="6"/>
+      <c r="BD397" s="24"/>
+      <c r="BE397" s="24"/>
+      <c r="BF397" s="25"/>
     </row>
-    <row r="398" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A398" s="6" t="s">
         <v>4499</v>
       </c>
@@ -64283,8 +65625,11 @@
         <v>11</v>
       </c>
       <c r="BC398" s="6"/>
+      <c r="BD398" s="24"/>
+      <c r="BE398" s="24"/>
+      <c r="BF398" s="25"/>
     </row>
-    <row r="399" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A399" s="6" t="s">
         <v>4500</v>
       </c>
@@ -64401,8 +65746,11 @@
         <v>12</v>
       </c>
       <c r="BC399" s="6"/>
+      <c r="BD399" s="24"/>
+      <c r="BE399" s="24"/>
+      <c r="BF399" s="25"/>
     </row>
-    <row r="400" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A400" s="6" t="s">
         <v>4502</v>
       </c>
@@ -64521,8 +65869,11 @@
         <v>12</v>
       </c>
       <c r="BC400" s="6"/>
+      <c r="BD400" s="24"/>
+      <c r="BE400" s="24"/>
+      <c r="BF400" s="25"/>
     </row>
-    <row r="401" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A401" s="6" t="s">
         <v>4504</v>
       </c>
@@ -64639,8 +65990,11 @@
         <v>12</v>
       </c>
       <c r="BC401" s="6"/>
+      <c r="BD401" s="24"/>
+      <c r="BE401" s="24"/>
+      <c r="BF401" s="25"/>
     </row>
-    <row r="402" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A402" s="6" t="s">
         <v>4506</v>
       </c>
@@ -64757,8 +66111,11 @@
         <v>11</v>
       </c>
       <c r="BC402" s="6"/>
+      <c r="BD402" s="24"/>
+      <c r="BE402" s="24"/>
+      <c r="BF402" s="25"/>
     </row>
-    <row r="403" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A403" s="8" t="s">
         <v>4508</v>
       </c>
@@ -64875,8 +66232,11 @@
         <v>12</v>
       </c>
       <c r="BC403" s="8"/>
+      <c r="BD403" s="24"/>
+      <c r="BE403" s="24"/>
+      <c r="BF403" s="25"/>
     </row>
-    <row r="404" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A404" s="8" t="s">
         <v>4510</v>
       </c>
@@ -64993,8 +66353,11 @@
         <v>12</v>
       </c>
       <c r="BC404" s="8"/>
+      <c r="BD404" s="24"/>
+      <c r="BE404" s="24"/>
+      <c r="BF404" s="25"/>
     </row>
-    <row r="405" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A405" s="8" t="s">
         <v>4511</v>
       </c>
@@ -65111,8 +66474,11 @@
         <v>12</v>
       </c>
       <c r="BC405" s="8"/>
+      <c r="BD405" s="24"/>
+      <c r="BE405" s="24"/>
+      <c r="BF405" s="25"/>
     </row>
-    <row r="406" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A406" s="8" t="s">
         <v>4512</v>
       </c>
@@ -65229,8 +66595,11 @@
         <v>11</v>
       </c>
       <c r="BC406" s="8"/>
+      <c r="BD406" s="24"/>
+      <c r="BE406" s="24"/>
+      <c r="BF406" s="25"/>
     </row>
-    <row r="407" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A407" s="8" t="s">
         <v>4514</v>
       </c>
@@ -65347,8 +66716,11 @@
         <v>12</v>
       </c>
       <c r="BC407" s="8"/>
+      <c r="BD407" s="24"/>
+      <c r="BE407" s="24"/>
+      <c r="BF407" s="25"/>
     </row>
-    <row r="408" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A408" s="6" t="s">
         <v>4516</v>
       </c>
@@ -65467,8 +66839,11 @@
         <v>12</v>
       </c>
       <c r="BC408" s="6"/>
+      <c r="BD408" s="24"/>
+      <c r="BE408" s="24"/>
+      <c r="BF408" s="25"/>
     </row>
-    <row r="409" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A409" s="6" t="s">
         <v>4520</v>
       </c>
@@ -65587,8 +66962,11 @@
         <v>12</v>
       </c>
       <c r="BC409" s="6"/>
+      <c r="BD409" s="24"/>
+      <c r="BE409" s="24"/>
+      <c r="BF409" s="25"/>
     </row>
-    <row r="410" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A410" s="6" t="s">
         <v>4521</v>
       </c>
@@ -65707,8 +67085,11 @@
         <v>12</v>
       </c>
       <c r="BC410" s="6"/>
+      <c r="BD410" s="24"/>
+      <c r="BE410" s="24"/>
+      <c r="BF410" s="25"/>
     </row>
-    <row r="411" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A411" s="6" t="s">
         <v>4523</v>
       </c>
@@ -65827,8 +67208,11 @@
         <v>11</v>
       </c>
       <c r="BC411" s="6"/>
+      <c r="BD411" s="24"/>
+      <c r="BE411" s="24"/>
+      <c r="BF411" s="25"/>
     </row>
-    <row r="412" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A412" s="8" t="s">
         <v>4525</v>
       </c>
@@ -65945,8 +67329,11 @@
         <v>12</v>
       </c>
       <c r="BC412" s="8"/>
+      <c r="BD412" s="24"/>
+      <c r="BE412" s="24"/>
+      <c r="BF412" s="25"/>
     </row>
-    <row r="413" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A413" s="8" t="s">
         <v>4527</v>
       </c>
@@ -66063,8 +67450,11 @@
         <v>11</v>
       </c>
       <c r="BC413" s="8"/>
+      <c r="BD413" s="24"/>
+      <c r="BE413" s="24"/>
+      <c r="BF413" s="25"/>
     </row>
-    <row r="414" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A414" s="6" t="s">
         <v>4528</v>
       </c>
@@ -66183,380 +67573,384 @@
         <v>6</v>
       </c>
       <c r="BC414" s="6"/>
+      <c r="BD414" s="26"/>
+      <c r="BE414" s="26"/>
+      <c r="BF414" s="25"/>
     </row>
-    <row r="415" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:58" x14ac:dyDescent="0.25">
       <c r="R415" s="7"/>
     </row>
-    <row r="416" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:58" x14ac:dyDescent="0.25">
       <c r="R416" s="7"/>
     </row>
-    <row r="417" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="417" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R417" s="7"/>
     </row>
-    <row r="418" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="418" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R418" s="7"/>
     </row>
-    <row r="419" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="419" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R419" s="7"/>
     </row>
-    <row r="420" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="420" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R420" s="7"/>
     </row>
-    <row r="421" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="421" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R421" s="7"/>
     </row>
-    <row r="422" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="422" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R422" s="7"/>
     </row>
-    <row r="423" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="423" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R423" s="7"/>
     </row>
-    <row r="424" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="424" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R424" s="7"/>
     </row>
-    <row r="425" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="425" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R425" s="7"/>
     </row>
-    <row r="426" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="426" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R426" s="7"/>
     </row>
-    <row r="427" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="427" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R427" s="7"/>
     </row>
-    <row r="428" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="428" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R428" s="7"/>
     </row>
-    <row r="429" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="429" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R429" s="7"/>
     </row>
-    <row r="430" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="430" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R430" s="7"/>
     </row>
-    <row r="431" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="431" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R431" s="7"/>
     </row>
-    <row r="432" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="432" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R432" s="7"/>
     </row>
-    <row r="433" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="433" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R433" s="7"/>
     </row>
-    <row r="434" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="434" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R434" s="7"/>
     </row>
-    <row r="435" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="435" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R435" s="7"/>
     </row>
-    <row r="436" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="436" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R436" s="7"/>
     </row>
-    <row r="437" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="437" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R437" s="7"/>
     </row>
-    <row r="438" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="438" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R438" s="7"/>
     </row>
-    <row r="439" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="439" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R439" s="7"/>
     </row>
-    <row r="440" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="440" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R440" s="7"/>
     </row>
-    <row r="441" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="441" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R441" s="7"/>
     </row>
-    <row r="442" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="442" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R442" s="7"/>
     </row>
-    <row r="443" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="443" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R443" s="7"/>
     </row>
-    <row r="444" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="444" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R444" s="7"/>
     </row>
-    <row r="445" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="445" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R445" s="7"/>
     </row>
-    <row r="446" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="446" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R446" s="7"/>
     </row>
-    <row r="447" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="447" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R447" s="7"/>
     </row>
-    <row r="448" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="448" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R448" s="7"/>
     </row>
-    <row r="449" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="449" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R449" s="7"/>
     </row>
-    <row r="450" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="450" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R450" s="7"/>
     </row>
-    <row r="451" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="451" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R451" s="7"/>
     </row>
-    <row r="452" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="452" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R452" s="7"/>
     </row>
-    <row r="453" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="453" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R453" s="7"/>
     </row>
-    <row r="454" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="454" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R454" s="7"/>
     </row>
-    <row r="455" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="455" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R455" s="7"/>
     </row>
-    <row r="456" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="456" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R456" s="7"/>
     </row>
-    <row r="457" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="457" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R457" s="7"/>
     </row>
-    <row r="458" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="458" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R458" s="7"/>
     </row>
-    <row r="459" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="459" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R459" s="7"/>
     </row>
-    <row r="460" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="460" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R460" s="7"/>
     </row>
-    <row r="461" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="461" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R461" s="7"/>
     </row>
-    <row r="462" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="462" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R462" s="7"/>
     </row>
-    <row r="463" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="463" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R463" s="7"/>
     </row>
-    <row r="464" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="464" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R464" s="7"/>
     </row>
-    <row r="465" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="465" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R465" s="7"/>
     </row>
-    <row r="466" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="466" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R466" s="7"/>
     </row>
-    <row r="467" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="467" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R467" s="7"/>
     </row>
-    <row r="468" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="468" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R468" s="7"/>
     </row>
-    <row r="469" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="469" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R469" s="7"/>
     </row>
-    <row r="470" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="470" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R470" s="7"/>
     </row>
-    <row r="471" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="471" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R471" s="7"/>
     </row>
-    <row r="472" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="472" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R472" s="7"/>
     </row>
-    <row r="473" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="473" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R473" s="7"/>
     </row>
-    <row r="474" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="474" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R474" s="7"/>
     </row>
-    <row r="475" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="475" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R475" s="7"/>
     </row>
-    <row r="476" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="476" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R476" s="7"/>
     </row>
-    <row r="477" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="477" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R477" s="7"/>
     </row>
-    <row r="478" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="478" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R478" s="7"/>
     </row>
-    <row r="479" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="479" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R479" s="7"/>
     </row>
-    <row r="480" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="480" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R480" s="7"/>
     </row>
-    <row r="481" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="481" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R481" s="7"/>
     </row>
-    <row r="482" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="482" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R482" s="7"/>
     </row>
-    <row r="483" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="483" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R483" s="7"/>
     </row>
-    <row r="484" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="484" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R484" s="7"/>
     </row>
-    <row r="485" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="485" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R485" s="7"/>
     </row>
-    <row r="486" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="486" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R486" s="7"/>
     </row>
-    <row r="487" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="487" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R487" s="7"/>
     </row>
-    <row r="488" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="488" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R488" s="7"/>
     </row>
-    <row r="489" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="489" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R489" s="7"/>
     </row>
-    <row r="490" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="490" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R490" s="7"/>
     </row>
-    <row r="491" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="491" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R491" s="7"/>
     </row>
-    <row r="492" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="492" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R492" s="7"/>
     </row>
-    <row r="493" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="493" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R493" s="7"/>
     </row>
-    <row r="494" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="494" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R494" s="7"/>
     </row>
-    <row r="495" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="495" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R495" s="7"/>
     </row>
-    <row r="496" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="496" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R496" s="7"/>
     </row>
-    <row r="497" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="497" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R497" s="7"/>
     </row>
-    <row r="498" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="498" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R498" s="7"/>
     </row>
-    <row r="499" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="499" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R499" s="7"/>
     </row>
-    <row r="500" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="500" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R500" s="7"/>
     </row>
-    <row r="501" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="501" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R501" s="7"/>
     </row>
-    <row r="502" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="502" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R502" s="7"/>
     </row>
-    <row r="503" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="503" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R503" s="7"/>
     </row>
-    <row r="504" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="504" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R504" s="7"/>
     </row>
-    <row r="505" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="505" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R505" s="7"/>
     </row>
-    <row r="506" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="506" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R506" s="7"/>
     </row>
-    <row r="507" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="507" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R507" s="7"/>
     </row>
-    <row r="508" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="508" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R508" s="7"/>
     </row>
-    <row r="509" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="509" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R509" s="7"/>
     </row>
-    <row r="510" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="510" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R510" s="7"/>
     </row>
-    <row r="511" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="511" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R511" s="7"/>
     </row>
-    <row r="512" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="512" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R512" s="7"/>
     </row>
-    <row r="513" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="513" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R513" s="7"/>
     </row>
-    <row r="514" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="514" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R514" s="7"/>
     </row>
-    <row r="515" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="515" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R515" s="7"/>
     </row>
-    <row r="516" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="516" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R516" s="7"/>
     </row>
-    <row r="517" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="517" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R517" s="7"/>
     </row>
-    <row r="518" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="518" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R518" s="7"/>
     </row>
-    <row r="519" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="519" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R519" s="7"/>
     </row>
-    <row r="520" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="520" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R520" s="7"/>
     </row>
-    <row r="521" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="521" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R521" s="7"/>
     </row>
-    <row r="522" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="522" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R522" s="7"/>
     </row>
-    <row r="523" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="523" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R523" s="7"/>
     </row>
-    <row r="524" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="524" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R524" s="7"/>
     </row>
-    <row r="525" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="525" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R525" s="7"/>
     </row>
-    <row r="526" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="526" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R526" s="7"/>
     </row>
-    <row r="527" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="527" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R527" s="7"/>
     </row>
-    <row r="528" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="528" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R528" s="7"/>
     </row>
-    <row r="529" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="529" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R529" s="7"/>
     </row>
-    <row r="530" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="530" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R530" s="7"/>
     </row>
-    <row r="531" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="531" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R531" s="7"/>
     </row>
-    <row r="532" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="532" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R532" s="7"/>
     </row>
-    <row r="533" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="533" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R533" s="7"/>
     </row>
-    <row r="534" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="534" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R534" s="7"/>
     </row>
-    <row r="535" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="535" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R535" s="7"/>
     </row>
-    <row r="536" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="536" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R536" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:E3" xr:uid="{5FE33ACF-3452-499B-B6F3-B9A7B6BE41B3}"/>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="A1:BF1"/>
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:BA2"/>
     <mergeCell ref="M2:S2"/>
-    <mergeCell ref="A1:BC1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="T2:W2"/>
     <mergeCell ref="X2:AA2"/>
